--- a/MidiMerge2in5out/midimerge2in5out_bom.xlsx
+++ b/MidiMerge2in5out/midimerge2in5out_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/_home/_schemes/_Midi/MidiThru/MidiMerge2in5out/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiMerge2in5out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F8149-02DD-FB42-B2D5-F5B6A2129F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD42EC-5FC1-1948-9820-6717AECA7242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
   </bookViews>
   <sheets>
     <sheet name="midimerge2in5out" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="258">
   <si>
     <t>D</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>JP1</t>
-  </si>
-  <si>
-    <t>Pin_Headers:Pin_Header_Straight_1x03_Pitch2.54mm</t>
   </si>
   <si>
     <t>Dual jumper, normally closed</t>
@@ -1154,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ285"/>
+  <dimension ref="A1:AJ284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,9 +1194,9 @@
     <col min="36" max="36" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -1208,13 +1205,13 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1222,16 +1219,16 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1239,18 +1236,18 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -1265,9 +1262,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -1279,9 +1276,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1290,13 +1287,13 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1313,26 +1310,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1344,12 +1341,12 @@
         <v>246</v>
       </c>
       <c r="E9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1358,92 +1355,101 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>247</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s">
+        <v>107</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>108</v>
+      </c>
+      <c r="W16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="18:29" x14ac:dyDescent="0.2">
@@ -1451,25 +1457,25 @@
         <v>4</v>
       </c>
       <c r="S17" t="s">
+        <v>107</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
         <v>108</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>109</v>
       </c>
-      <c r="W17" t="s">
-        <v>110</v>
-      </c>
       <c r="AA17" t="s">
         <v>7</v>
       </c>
       <c r="AB17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="18:29" x14ac:dyDescent="0.2">
@@ -1477,22 +1483,22 @@
         <v>4</v>
       </c>
       <c r="S18" t="s">
+        <v>107</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
         <v>108</v>
       </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>109</v>
       </c>
-      <c r="W18" t="s">
-        <v>110</v>
-      </c>
       <c r="AA18" t="s">
         <v>7</v>
       </c>
       <c r="AB18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC18" t="s">
         <v>114</v>
@@ -1503,25 +1509,25 @@
         <v>4</v>
       </c>
       <c r="S19" t="s">
+        <v>107</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>109</v>
       </c>
-      <c r="W19" t="s">
-        <v>110</v>
-      </c>
       <c r="AA19" t="s">
         <v>7</v>
       </c>
       <c r="AB19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="18:29" x14ac:dyDescent="0.2">
@@ -1529,22 +1535,22 @@
         <v>4</v>
       </c>
       <c r="S20" t="s">
+        <v>107</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>108</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
-      <c r="W20" t="s">
-        <v>110</v>
-      </c>
       <c r="AA20" t="s">
         <v>7</v>
       </c>
       <c r="AB20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC20" t="s">
         <v>114</v>
@@ -1555,25 +1561,25 @@
         <v>4</v>
       </c>
       <c r="S21" t="s">
+        <v>107</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
         <v>108</v>
       </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>109</v>
       </c>
-      <c r="W21" t="s">
-        <v>110</v>
-      </c>
       <c r="AA21" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="AB21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="18:29" x14ac:dyDescent="0.2">
@@ -1581,25 +1587,25 @@
         <v>4</v>
       </c>
       <c r="S22" t="s">
+        <v>107</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>108</v>
       </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>109</v>
       </c>
-      <c r="W22" t="s">
-        <v>110</v>
-      </c>
       <c r="AA22" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="AB22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="18:29" x14ac:dyDescent="0.2">
@@ -1607,25 +1613,25 @@
         <v>4</v>
       </c>
       <c r="S23" t="s">
+        <v>107</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>108</v>
       </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>109</v>
       </c>
-      <c r="W23" t="s">
-        <v>110</v>
-      </c>
       <c r="AA23" t="s">
         <v>7</v>
       </c>
       <c r="AB23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="18:29" x14ac:dyDescent="0.2">
@@ -1633,22 +1639,22 @@
         <v>4</v>
       </c>
       <c r="S24" t="s">
+        <v>107</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
         <v>108</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>109</v>
       </c>
-      <c r="W24" t="s">
-        <v>110</v>
-      </c>
       <c r="AA24" t="s">
         <v>7</v>
       </c>
       <c r="AB24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="s">
         <v>114</v>
@@ -1659,25 +1665,25 @@
         <v>4</v>
       </c>
       <c r="S25" t="s">
+        <v>107</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
         <v>108</v>
       </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>109</v>
       </c>
-      <c r="W25" t="s">
-        <v>110</v>
-      </c>
       <c r="AA25" t="s">
         <v>7</v>
       </c>
       <c r="AB25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="18:29" x14ac:dyDescent="0.2">
@@ -1685,22 +1691,22 @@
         <v>4</v>
       </c>
       <c r="S26" t="s">
+        <v>107</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
         <v>108</v>
       </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>109</v>
       </c>
-      <c r="W26" t="s">
-        <v>110</v>
-      </c>
       <c r="AA26" t="s">
         <v>7</v>
       </c>
       <c r="AB26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="s">
         <v>114</v>
@@ -1711,25 +1717,25 @@
         <v>4</v>
       </c>
       <c r="S27" t="s">
+        <v>107</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
         <v>108</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>109</v>
       </c>
-      <c r="W27" t="s">
-        <v>110</v>
-      </c>
       <c r="AA27" t="s">
         <v>7</v>
       </c>
       <c r="AB27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="18:29" x14ac:dyDescent="0.2">
@@ -1737,51 +1743,45 @@
         <v>4</v>
       </c>
       <c r="S28" t="s">
+        <v>107</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
         <v>108</v>
       </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>109</v>
       </c>
-      <c r="W28" t="s">
-        <v>110</v>
-      </c>
       <c r="AA28" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="AB28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R29" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S29" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="U29" t="s">
+        <v>118</v>
       </c>
       <c r="V29" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB29">
-        <v>14</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="18:29" x14ac:dyDescent="0.2">
@@ -1794,14 +1794,17 @@
       <c r="T30">
         <v>2</v>
       </c>
-      <c r="U30" t="s">
-        <v>119</v>
-      </c>
       <c r="V30" t="s">
         <v>81</v>
       </c>
       <c r="W30" t="s">
         <v>7</v>
+      </c>
+      <c r="X30" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="18:29" x14ac:dyDescent="0.2">
@@ -1821,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="X31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y31" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="18:29" x14ac:dyDescent="0.2">
@@ -1843,11 +1846,8 @@
       <c r="W32" t="s">
         <v>7</v>
       </c>
-      <c r="X32" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>82</v>
+      <c r="Z32" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="18:29" x14ac:dyDescent="0.2">
@@ -1866,7 +1866,13 @@
       <c r="W33" t="s">
         <v>7</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1890,10 +1896,10 @@
         <v>7</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="18:29" x14ac:dyDescent="0.2">
@@ -1901,25 +1907,22 @@
         <v>18</v>
       </c>
       <c r="S35" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V35" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="W35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB35">
-        <v>2</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>122</v>
+        <v>15</v>
+      </c>
+      <c r="X35" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="18:29" x14ac:dyDescent="0.2">
@@ -1939,10 +1942,10 @@
         <v>15</v>
       </c>
       <c r="X36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y36" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="18:29" x14ac:dyDescent="0.2">
@@ -1961,11 +1964,8 @@
       <c r="W37" t="s">
         <v>15</v>
       </c>
-      <c r="X37" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>19</v>
+      <c r="Z37" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="18:29" x14ac:dyDescent="0.2">
@@ -1984,8 +1984,14 @@
       <c r="W38" t="s">
         <v>15</v>
       </c>
-      <c r="Z38" t="s">
-        <v>123</v>
+      <c r="AA38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="18:29" x14ac:dyDescent="0.2">
@@ -2008,10 +2014,10 @@
         <v>7</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="18:29" x14ac:dyDescent="0.2">
@@ -2034,10 +2040,10 @@
         <v>7</v>
       </c>
       <c r="AB40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="18:29" x14ac:dyDescent="0.2">
@@ -2060,10 +2066,10 @@
         <v>7</v>
       </c>
       <c r="AB41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="18:29" x14ac:dyDescent="0.2">
@@ -2086,36 +2092,33 @@
         <v>7</v>
       </c>
       <c r="AB42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R43" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S43" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V43" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="W43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB43">
-        <v>5</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>122</v>
+        <v>7</v>
+      </c>
+      <c r="X43" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="18:29" x14ac:dyDescent="0.2">
@@ -2135,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="X44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y44" t="s">
         <v>31</v>
@@ -2157,11 +2160,8 @@
       <c r="W45" t="s">
         <v>7</v>
       </c>
-      <c r="X45" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>31</v>
+      <c r="Z45" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="18:29" x14ac:dyDescent="0.2">
@@ -2180,8 +2180,14 @@
       <c r="W46" t="s">
         <v>7</v>
       </c>
-      <c r="Z46" t="s">
-        <v>124</v>
+      <c r="AA46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="18:29" x14ac:dyDescent="0.2">
@@ -2204,10 +2210,10 @@
         <v>7</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="18:29" x14ac:dyDescent="0.2">
@@ -2215,25 +2221,22 @@
         <v>10</v>
       </c>
       <c r="S48" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="W48" t="s">
         <v>7</v>
       </c>
-      <c r="AA48" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB48">
-        <v>2</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>122</v>
+      <c r="X48" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="18:29" x14ac:dyDescent="0.2">
@@ -2253,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="X49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y49" t="s">
         <v>0</v>
@@ -2275,11 +2278,8 @@
       <c r="W50" t="s">
         <v>7</v>
       </c>
-      <c r="X50" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>0</v>
+      <c r="Z50" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="18:29" x14ac:dyDescent="0.2">
@@ -2358,8 +2358,14 @@
       <c r="W54" t="s">
         <v>7</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>128</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="18:29" x14ac:dyDescent="0.2">
@@ -2382,10 +2388,10 @@
         <v>129</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="18:29" x14ac:dyDescent="0.2">
@@ -2393,25 +2399,22 @@
         <v>10</v>
       </c>
       <c r="S56" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="T56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V56" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="W56" t="s">
         <v>7</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="X56" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y56" t="s">
         <v>130</v>
-      </c>
-      <c r="AB56">
-        <v>2</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="57" spans="18:29" x14ac:dyDescent="0.2">
@@ -2419,22 +2422,22 @@
         <v>10</v>
       </c>
       <c r="S57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T57">
         <v>6</v>
       </c>
       <c r="V57" t="s">
+        <v>84</v>
+      </c>
+      <c r="W57" t="s">
+        <v>7</v>
+      </c>
+      <c r="X57" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y57" t="s">
         <v>85</v>
-      </c>
-      <c r="W57" t="s">
-        <v>7</v>
-      </c>
-      <c r="X57" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="58" spans="18:29" x14ac:dyDescent="0.2">
@@ -2442,22 +2445,25 @@
         <v>10</v>
       </c>
       <c r="S58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T58">
         <v>6</v>
       </c>
       <c r="V58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W58" t="s">
         <v>7</v>
       </c>
-      <c r="X58" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>86</v>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="18:29" x14ac:dyDescent="0.2">
@@ -2465,25 +2471,25 @@
         <v>10</v>
       </c>
       <c r="S59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T59">
         <v>6</v>
       </c>
       <c r="V59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W59" t="s">
         <v>7</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.2">
@@ -2491,25 +2497,25 @@
         <v>10</v>
       </c>
       <c r="S60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T60">
         <v>6</v>
       </c>
       <c r="V60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W60" t="s">
         <v>7</v>
       </c>
       <c r="AA60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.2">
@@ -2517,25 +2523,22 @@
         <v>10</v>
       </c>
       <c r="S61" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="T61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V61" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="W61" t="s">
         <v>7</v>
       </c>
-      <c r="AA61">
-        <v>3</v>
-      </c>
-      <c r="AB61">
-        <v>3</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>122</v>
+      <c r="X61" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="18:29" x14ac:dyDescent="0.2">
@@ -2555,10 +2558,10 @@
         <v>7</v>
       </c>
       <c r="X62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y62" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="18:29" x14ac:dyDescent="0.2">
@@ -2577,11 +2580,8 @@
       <c r="W63" t="s">
         <v>7</v>
       </c>
-      <c r="X63" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>47</v>
+      <c r="Z63" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="18:29" x14ac:dyDescent="0.2">
@@ -2640,8 +2640,14 @@
       <c r="W66" t="s">
         <v>7</v>
       </c>
-      <c r="Z66" t="s">
-        <v>134</v>
+      <c r="AA66" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -2664,10 +2670,10 @@
         <v>129</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="18:29" x14ac:dyDescent="0.2">
@@ -2675,25 +2681,22 @@
         <v>10</v>
       </c>
       <c r="S68" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="T68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V68" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="W68" t="s">
         <v>7</v>
       </c>
-      <c r="AA68" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB68">
-        <v>2</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>122</v>
+      <c r="X68" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="18:29" x14ac:dyDescent="0.2">
@@ -2713,7 +2716,7 @@
         <v>7</v>
       </c>
       <c r="X69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y69" t="s">
         <v>11</v>
@@ -2735,11 +2738,8 @@
       <c r="W70" t="s">
         <v>7</v>
       </c>
-      <c r="X70" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>11</v>
+      <c r="Z70" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -2758,8 +2758,14 @@
       <c r="W71" t="s">
         <v>7</v>
       </c>
-      <c r="Z71" t="s">
-        <v>135</v>
+      <c r="AA71" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="18:29" x14ac:dyDescent="0.2">
@@ -2782,36 +2788,30 @@
         <v>7</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R73" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="S73" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="T73">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="U73" t="s">
+        <v>135</v>
       </c>
       <c r="V73" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="W73" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB73">
-        <v>2</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -2824,14 +2824,17 @@
       <c r="T74">
         <v>9</v>
       </c>
-      <c r="U74" t="s">
-        <v>136</v>
-      </c>
       <c r="V74" t="s">
         <v>58</v>
       </c>
       <c r="W74" t="s">
         <v>56</v>
+      </c>
+      <c r="X74" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -2851,10 +2854,10 @@
         <v>56</v>
       </c>
       <c r="X75" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y75" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -2873,11 +2876,8 @@
       <c r="W76" t="s">
         <v>56</v>
       </c>
-      <c r="X76" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>60</v>
+      <c r="Z76" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -2916,8 +2916,14 @@
       <c r="W78" t="s">
         <v>56</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>138</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -2937,13 +2943,13 @@
         <v>56</v>
       </c>
       <c r="AA79" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC79" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="18:29" x14ac:dyDescent="0.2">
@@ -2963,13 +2969,13 @@
         <v>56</v>
       </c>
       <c r="AA80" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="AB80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
@@ -2989,13 +2995,13 @@
         <v>56</v>
       </c>
       <c r="AA81" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AB81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC81" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3015,13 +3021,13 @@
         <v>56</v>
       </c>
       <c r="AA82" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="AB82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC82" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -3041,13 +3047,13 @@
         <v>56</v>
       </c>
       <c r="AA83" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="AB83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3070,10 +3076,10 @@
         <v>141</v>
       </c>
       <c r="AB84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
@@ -3093,39 +3099,36 @@
         <v>56</v>
       </c>
       <c r="AA85" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="AB85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R86" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="S86" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="T86">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V86" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="W86" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB86">
-        <v>8</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>122</v>
+        <v>39</v>
+      </c>
+      <c r="X86" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
@@ -3145,10 +3148,10 @@
         <v>39</v>
       </c>
       <c r="X87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y87" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
@@ -3167,11 +3170,8 @@
       <c r="W88" t="s">
         <v>39</v>
       </c>
-      <c r="X88" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>43</v>
+      <c r="Z88" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
@@ -3210,8 +3210,14 @@
       <c r="W90" t="s">
         <v>39</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>144</v>
+      </c>
+      <c r="AB90">
+        <v>1</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
@@ -3231,13 +3237,13 @@
         <v>39</v>
       </c>
       <c r="AA91" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB91">
+        <v>2</v>
+      </c>
+      <c r="AC91" t="s">
         <v>145</v>
-      </c>
-      <c r="AB91">
-        <v>1</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
@@ -3260,10 +3266,10 @@
         <v>147</v>
       </c>
       <c r="AB92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="18:29" x14ac:dyDescent="0.2">
@@ -3286,10 +3292,10 @@
         <v>148</v>
       </c>
       <c r="AB93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC93" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
@@ -3312,10 +3318,10 @@
         <v>149</v>
       </c>
       <c r="AB94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC94" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
@@ -3338,10 +3344,10 @@
         <v>150</v>
       </c>
       <c r="AB95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC95" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -3364,10 +3370,10 @@
         <v>151</v>
       </c>
       <c r="AB96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="18:29" x14ac:dyDescent="0.2">
@@ -3390,10 +3396,10 @@
         <v>152</v>
       </c>
       <c r="AB97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="18:29" x14ac:dyDescent="0.2">
@@ -3416,10 +3422,10 @@
         <v>153</v>
       </c>
       <c r="AB98">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="18:29" x14ac:dyDescent="0.2">
@@ -3442,10 +3448,10 @@
         <v>154</v>
       </c>
       <c r="AB99">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="18:29" x14ac:dyDescent="0.2">
@@ -3468,10 +3474,10 @@
         <v>155</v>
       </c>
       <c r="AB100">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="18:29" x14ac:dyDescent="0.2">
@@ -3494,10 +3500,10 @@
         <v>156</v>
       </c>
       <c r="AB101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="18:29" x14ac:dyDescent="0.2">
@@ -3520,10 +3526,10 @@
         <v>157</v>
       </c>
       <c r="AB102">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="18:29" x14ac:dyDescent="0.2">
@@ -3546,10 +3552,10 @@
         <v>158</v>
       </c>
       <c r="AB103">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC103" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="18:29" x14ac:dyDescent="0.2">
@@ -3572,10 +3578,10 @@
         <v>159</v>
       </c>
       <c r="AB104">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC104" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="18:29" x14ac:dyDescent="0.2">
@@ -3598,10 +3604,10 @@
         <v>160</v>
       </c>
       <c r="AB105">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="18:29" x14ac:dyDescent="0.2">
@@ -3624,10 +3630,10 @@
         <v>161</v>
       </c>
       <c r="AB106">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="18:29" x14ac:dyDescent="0.2">
@@ -3650,418 +3656,400 @@
         <v>162</v>
       </c>
       <c r="AB107">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R108" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="S108" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="T108">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V108" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="W108" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB108">
-        <v>18</v>
-      </c>
-      <c r="AC108" t="s">
-        <v>146</v>
+        <v>87</v>
+      </c>
+      <c r="X108" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R109" t="s">
+        <v>92</v>
+      </c>
+      <c r="S109" t="s">
         <v>93</v>
-      </c>
-      <c r="S109" t="s">
-        <v>94</v>
       </c>
       <c r="T109">
         <v>11</v>
       </c>
       <c r="V109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W109" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y109" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R110" t="s">
+        <v>92</v>
+      </c>
+      <c r="S110" t="s">
         <v>93</v>
-      </c>
-      <c r="S110" t="s">
-        <v>94</v>
       </c>
       <c r="T110">
         <v>11</v>
       </c>
       <c r="V110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W110" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X110" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="Y110" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R111" t="s">
+        <v>92</v>
+      </c>
+      <c r="S111" t="s">
         <v>93</v>
-      </c>
-      <c r="S111" t="s">
-        <v>94</v>
       </c>
       <c r="T111">
         <v>11</v>
       </c>
       <c r="V111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X111" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y111" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R112" t="s">
+        <v>92</v>
+      </c>
+      <c r="S112" t="s">
         <v>93</v>
-      </c>
-      <c r="S112" t="s">
-        <v>94</v>
       </c>
       <c r="T112">
         <v>11</v>
       </c>
       <c r="V112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X112" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="Y112" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R113" t="s">
+        <v>92</v>
+      </c>
+      <c r="S113" t="s">
         <v>93</v>
-      </c>
-      <c r="S113" t="s">
-        <v>94</v>
       </c>
       <c r="T113">
         <v>11</v>
       </c>
       <c r="V113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X113" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y113" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R114" t="s">
+        <v>92</v>
+      </c>
+      <c r="S114" t="s">
         <v>93</v>
-      </c>
-      <c r="S114" t="s">
-        <v>94</v>
       </c>
       <c r="T114">
         <v>11</v>
       </c>
       <c r="V114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W114" t="s">
+        <v>87</v>
+      </c>
+      <c r="X114" t="s">
         <v>88</v>
       </c>
-      <c r="X114" t="s">
-        <v>103</v>
-      </c>
       <c r="Y114" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R115" t="s">
+        <v>92</v>
+      </c>
+      <c r="S115" t="s">
         <v>93</v>
-      </c>
-      <c r="S115" t="s">
-        <v>94</v>
       </c>
       <c r="T115">
         <v>11</v>
       </c>
       <c r="V115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X115" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Y115" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R116" t="s">
+        <v>92</v>
+      </c>
+      <c r="S116" t="s">
         <v>93</v>
-      </c>
-      <c r="S116" t="s">
-        <v>94</v>
       </c>
       <c r="T116">
         <v>11</v>
       </c>
       <c r="V116" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X116" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Y116" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R117" t="s">
+        <v>92</v>
+      </c>
+      <c r="S117" t="s">
         <v>93</v>
-      </c>
-      <c r="S117" t="s">
-        <v>94</v>
       </c>
       <c r="T117">
         <v>11</v>
       </c>
       <c r="V117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X117" t="s">
         <v>95</v>
       </c>
       <c r="Y117" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R118" t="s">
+        <v>92</v>
+      </c>
+      <c r="S118" t="s">
         <v>93</v>
-      </c>
-      <c r="S118" t="s">
-        <v>94</v>
       </c>
       <c r="T118">
         <v>11</v>
       </c>
       <c r="V118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X118" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y118" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R119" t="s">
+        <v>92</v>
+      </c>
+      <c r="S119" t="s">
         <v>93</v>
-      </c>
-      <c r="S119" t="s">
-        <v>94</v>
       </c>
       <c r="T119">
         <v>11</v>
       </c>
       <c r="V119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W119" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X119" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Y119" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R120" t="s">
+        <v>92</v>
+      </c>
+      <c r="S120" t="s">
         <v>93</v>
-      </c>
-      <c r="S120" t="s">
-        <v>94</v>
       </c>
       <c r="T120">
         <v>11</v>
       </c>
       <c r="V120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y120" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R121" t="s">
+        <v>92</v>
+      </c>
+      <c r="S121" t="s">
         <v>93</v>
-      </c>
-      <c r="S121" t="s">
-        <v>94</v>
       </c>
       <c r="T121">
         <v>11</v>
       </c>
       <c r="V121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W121" t="s">
-        <v>88</v>
-      </c>
-      <c r="X121" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y121" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB121">
+        <v>1</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R122" t="s">
+        <v>92</v>
+      </c>
+      <c r="S122" t="s">
         <v>93</v>
-      </c>
-      <c r="S122" t="s">
-        <v>94</v>
       </c>
       <c r="T122">
         <v>11</v>
       </c>
       <c r="V122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA122" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="AB122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="18:31" x14ac:dyDescent="0.2">
       <c r="R123" t="s">
+        <v>92</v>
+      </c>
+      <c r="S123" t="s">
         <v>93</v>
-      </c>
-      <c r="S123" t="s">
-        <v>94</v>
       </c>
       <c r="T123">
         <v>11</v>
       </c>
       <c r="V123" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA123" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="AB123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC123" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="R124" t="s">
-        <v>93</v>
-      </c>
-      <c r="S124" t="s">
-        <v>94</v>
-      </c>
-      <c r="T124">
-        <v>11</v>
-      </c>
-      <c r="V124" t="s">
-        <v>92</v>
-      </c>
-      <c r="W124" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB124">
-        <v>3</v>
-      </c>
-      <c r="AC124" t="s">
+      <c r="AD124" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE124" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="125" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD125" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AE125" t="s">
         <v>170</v>
@@ -4069,7 +4057,7 @@
     </row>
     <row r="126" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD126" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE126" t="s">
         <v>171</v>
@@ -4077,7 +4065,7 @@
     </row>
     <row r="127" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD127" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="AE127" t="s">
         <v>172</v>
@@ -4085,7 +4073,7 @@
     </row>
     <row r="128" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD128" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AE128" t="s">
         <v>173</v>
@@ -4093,18 +4081,27 @@
     </row>
     <row r="129" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD129" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AE129" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="130" spans="30:36" x14ac:dyDescent="0.2">
-      <c r="AD130" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE130" t="s">
+      <c r="AF130">
+        <v>1</v>
+      </c>
+      <c r="AG130" t="s">
         <v>175</v>
+      </c>
+      <c r="AH130">
+        <v>1</v>
+      </c>
+      <c r="AI130">
+        <v>1</v>
+      </c>
+      <c r="AJ130" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="30:36" x14ac:dyDescent="0.2">
@@ -4112,13 +4109,13 @@
         <v>1</v>
       </c>
       <c r="AG131" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH131">
         <v>1</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ131" t="s">
         <v>1</v>
@@ -4129,13 +4126,13 @@
         <v>1</v>
       </c>
       <c r="AG132" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH132">
         <v>1</v>
       </c>
       <c r="AI132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ132" t="s">
         <v>1</v>
@@ -4146,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="AG133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH133">
         <v>1</v>
       </c>
       <c r="AI133">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ133" t="s">
         <v>1</v>
@@ -4163,13 +4160,13 @@
         <v>1</v>
       </c>
       <c r="AG134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH134">
         <v>1</v>
       </c>
       <c r="AI134">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ134" t="s">
         <v>1</v>
@@ -4180,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="AG135" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH135">
         <v>1</v>
       </c>
       <c r="AI135">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ135" t="s">
         <v>1</v>
@@ -4194,19 +4191,19 @@
     </row>
     <row r="136" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG136" t="s">
         <v>176</v>
       </c>
       <c r="AH136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI136">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AJ136" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="30:36" x14ac:dyDescent="0.2">
@@ -4214,33 +4211,33 @@
         <v>2</v>
       </c>
       <c r="AG137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH137">
         <v>2</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ137" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG138" t="s">
         <v>177</v>
       </c>
       <c r="AH138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI138">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ138" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="30:36" x14ac:dyDescent="0.2">
@@ -4248,33 +4245,33 @@
         <v>3</v>
       </c>
       <c r="AG139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AH139">
         <v>3</v>
       </c>
       <c r="AI139">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ139" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG140" t="s">
         <v>178</v>
       </c>
       <c r="AH140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI140">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ140" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="30:36" x14ac:dyDescent="0.2">
@@ -4282,33 +4279,33 @@
         <v>4</v>
       </c>
       <c r="AG141" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH141">
         <v>4</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ141" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG142" t="s">
         <v>179</v>
       </c>
       <c r="AH142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ142" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="30:36" x14ac:dyDescent="0.2">
@@ -4316,33 +4313,33 @@
         <v>5</v>
       </c>
       <c r="AG143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH143">
         <v>5</v>
       </c>
       <c r="AI143">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ143" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG144" t="s">
         <v>180</v>
       </c>
       <c r="AH144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI144">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ144" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="32:36" x14ac:dyDescent="0.2">
@@ -4350,33 +4347,33 @@
         <v>6</v>
       </c>
       <c r="AG145" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AH145">
         <v>6</v>
       </c>
       <c r="AI145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ145" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF146">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG146" t="s">
         <v>181</v>
       </c>
       <c r="AH146">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI146">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ146" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="32:36" x14ac:dyDescent="0.2">
@@ -4384,47 +4381,47 @@
         <v>7</v>
       </c>
       <c r="AG147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH147">
         <v>7</v>
       </c>
       <c r="AI147">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AJ147" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG148" t="s">
         <v>182</v>
       </c>
       <c r="AH148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG149" t="s">
         <v>183</v>
       </c>
       <c r="AH149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ149" t="s">
         <v>14</v>
@@ -4432,33 +4429,33 @@
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF150">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG150" t="s">
         <v>184</v>
       </c>
       <c r="AH150">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ150" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF151">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG151" t="s">
         <v>185</v>
       </c>
       <c r="AH151">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ151" t="s">
         <v>20</v>
@@ -4466,33 +4463,33 @@
     </row>
     <row r="152" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF152">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG152" t="s">
         <v>186</v>
       </c>
       <c r="AH152">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF153">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG153" t="s">
         <v>187</v>
       </c>
       <c r="AH153">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ153" t="s">
         <v>21</v>
@@ -4500,33 +4497,33 @@
     </row>
     <row r="154" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF154">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG154" t="s">
         <v>188</v>
       </c>
       <c r="AH154">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ154" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF155">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG155" t="s">
         <v>189</v>
       </c>
       <c r="AH155">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ155" t="s">
         <v>22</v>
@@ -4534,19 +4531,19 @@
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF156">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG156" t="s">
         <v>190</v>
       </c>
       <c r="AH156">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ156" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="32:36" x14ac:dyDescent="0.2">
@@ -4554,33 +4551,33 @@
         <v>16</v>
       </c>
       <c r="AG157" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH157">
         <v>16</v>
       </c>
       <c r="AI157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ157" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF158">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG158" t="s">
         <v>191</v>
       </c>
       <c r="AH158">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ158" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="32:36" x14ac:dyDescent="0.2">
@@ -4588,33 +4585,33 @@
         <v>17</v>
       </c>
       <c r="AG159" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH159">
         <v>17</v>
       </c>
       <c r="AI159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ159" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF160">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG160" t="s">
         <v>192</v>
       </c>
       <c r="AH160">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ160" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="32:36" x14ac:dyDescent="0.2">
@@ -4622,33 +4619,33 @@
         <v>18</v>
       </c>
       <c r="AG161" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH161">
         <v>18</v>
       </c>
       <c r="AI161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ161" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF162">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG162" t="s">
         <v>193</v>
       </c>
       <c r="AH162">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ162" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
@@ -4656,33 +4653,33 @@
         <v>19</v>
       </c>
       <c r="AG163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH163">
         <v>19</v>
       </c>
       <c r="AI163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ163" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF164">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG164" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="AH164">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI164">
         <v>2</v>
       </c>
       <c r="AJ164" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -4690,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="AG165" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH165">
         <v>20</v>
@@ -4699,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="AJ165" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
@@ -4707,7 +4704,7 @@
         <v>20</v>
       </c>
       <c r="AG166" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH166">
         <v>20</v>
@@ -4716,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="AJ166" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
@@ -4724,7 +4721,7 @@
         <v>20</v>
       </c>
       <c r="AG167" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH167">
         <v>20</v>
@@ -4733,7 +4730,7 @@
         <v>2</v>
       </c>
       <c r="AJ167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
@@ -4741,7 +4738,7 @@
         <v>20</v>
       </c>
       <c r="AG168" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH168">
         <v>20</v>
@@ -4750,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="AJ168" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
@@ -4758,7 +4755,7 @@
         <v>20</v>
       </c>
       <c r="AG169" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH169">
         <v>20</v>
@@ -4767,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="AJ169" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
@@ -4775,7 +4772,7 @@
         <v>20</v>
       </c>
       <c r="AG170" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH170">
         <v>20</v>
@@ -4784,7 +4781,7 @@
         <v>2</v>
       </c>
       <c r="AJ170" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
@@ -4792,7 +4789,7 @@
         <v>20</v>
       </c>
       <c r="AG171" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH171">
         <v>20</v>
@@ -4801,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="AJ171" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
@@ -4809,16 +4806,16 @@
         <v>20</v>
       </c>
       <c r="AG172" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH172">
         <v>20</v>
       </c>
       <c r="AI172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ172" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
@@ -4826,16 +4823,16 @@
         <v>20</v>
       </c>
       <c r="AG173" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH173">
         <v>20</v>
       </c>
       <c r="AI173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ173" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
@@ -4843,7 +4840,7 @@
         <v>20</v>
       </c>
       <c r="AG174" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH174">
         <v>20</v>
@@ -4852,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="AJ174" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
@@ -4860,7 +4857,7 @@
         <v>20</v>
       </c>
       <c r="AG175" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH175">
         <v>20</v>
@@ -4869,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="AJ175" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
@@ -4877,7 +4874,7 @@
         <v>20</v>
       </c>
       <c r="AG176" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH176">
         <v>20</v>
@@ -4886,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="AJ176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
@@ -4894,7 +4891,7 @@
         <v>20</v>
       </c>
       <c r="AG177" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH177">
         <v>20</v>
@@ -4903,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="AJ177" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
@@ -4911,16 +4908,16 @@
         <v>20</v>
       </c>
       <c r="AG178" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH178">
         <v>20</v>
       </c>
       <c r="AI178">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ178" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
@@ -4928,16 +4925,16 @@
         <v>20</v>
       </c>
       <c r="AG179" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH179">
         <v>20</v>
       </c>
       <c r="AI179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
@@ -4945,16 +4942,16 @@
         <v>20</v>
       </c>
       <c r="AG180" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH180">
         <v>20</v>
       </c>
       <c r="AI180">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ180" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
@@ -4962,16 +4959,16 @@
         <v>20</v>
       </c>
       <c r="AG181" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH181">
         <v>20</v>
       </c>
       <c r="AI181">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ181" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
@@ -4979,33 +4976,33 @@
         <v>20</v>
       </c>
       <c r="AG182" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH182">
         <v>20</v>
       </c>
       <c r="AI182">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ182" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF183">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG183" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="AH183">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI183">
         <v>2</v>
       </c>
       <c r="AJ183" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
@@ -5013,30 +5010,30 @@
         <v>21</v>
       </c>
       <c r="AG184" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH184">
         <v>21</v>
       </c>
       <c r="AI184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ184" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG185" t="s">
         <v>195</v>
       </c>
       <c r="AH185">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ185" t="s">
         <v>37</v>
@@ -5044,16 +5041,16 @@
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG186" t="s">
         <v>196</v>
       </c>
       <c r="AH186">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ186" t="s">
         <v>37</v>
@@ -5061,19 +5058,19 @@
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF187">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG187" t="s">
         <v>197</v>
       </c>
       <c r="AH187">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ187" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
@@ -5081,33 +5078,33 @@
         <v>24</v>
       </c>
       <c r="AG188" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH188">
         <v>24</v>
       </c>
       <c r="AI188">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ188" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF189">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG189" t="s">
         <v>198</v>
       </c>
       <c r="AH189">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ189" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="32:36" x14ac:dyDescent="0.2">
@@ -5115,33 +5112,33 @@
         <v>25</v>
       </c>
       <c r="AG190" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH190">
         <v>25</v>
       </c>
       <c r="AI190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ190" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF191">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG191" t="s">
         <v>199</v>
       </c>
       <c r="AH191">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI191">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ191" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="32:36" x14ac:dyDescent="0.2">
@@ -5149,30 +5146,30 @@
         <v>26</v>
       </c>
       <c r="AG192" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH192">
         <v>26</v>
       </c>
       <c r="AI192">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ192" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF193">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG193" t="s">
         <v>200</v>
       </c>
       <c r="AH193">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ193" t="s">
         <v>36</v>
@@ -5183,7 +5180,7 @@
         <v>27</v>
       </c>
       <c r="AG194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH194">
         <v>27</v>
@@ -5192,24 +5189,24 @@
         <v>2</v>
       </c>
       <c r="AJ194" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF195">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG195" t="s">
         <v>201</v>
       </c>
       <c r="AH195">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ195" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
@@ -5217,47 +5214,47 @@
         <v>28</v>
       </c>
       <c r="AG196" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH196">
         <v>28</v>
       </c>
       <c r="AI196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ196" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF197">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG197" t="s">
         <v>202</v>
       </c>
       <c r="AH197">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI197">
         <v>2</v>
       </c>
       <c r="AJ197" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF198">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG198" t="s">
         <v>203</v>
       </c>
       <c r="AH198">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ198" t="s">
         <v>38</v>
@@ -5265,16 +5262,16 @@
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF199">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG199" t="s">
         <v>204</v>
       </c>
       <c r="AH199">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI199">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ199" t="s">
         <v>38</v>
@@ -5282,16 +5279,16 @@
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF200">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG200" t="s">
         <v>205</v>
       </c>
       <c r="AH200">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI200">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ200" t="s">
         <v>38</v>
@@ -5299,16 +5296,16 @@
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF201">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG201" t="s">
         <v>206</v>
       </c>
       <c r="AH201">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI201">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ201" t="s">
         <v>38</v>
@@ -5316,16 +5313,16 @@
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF202">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG202" t="s">
         <v>207</v>
       </c>
       <c r="AH202">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI202">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ202" t="s">
         <v>38</v>
@@ -5336,47 +5333,47 @@
         <v>34</v>
       </c>
       <c r="AG203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH203">
         <v>34</v>
       </c>
       <c r="AI203">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ203" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF204">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG204" t="s">
         <v>208</v>
       </c>
       <c r="AH204">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI204">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ204" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF205">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG205" t="s">
         <v>209</v>
       </c>
       <c r="AH205">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AI205">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ205" t="s">
         <v>38</v>
@@ -5384,16 +5381,16 @@
     </row>
     <row r="206" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF206">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG206" t="s">
         <v>210</v>
       </c>
       <c r="AH206">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AI206">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ206" t="s">
         <v>38</v>
@@ -5401,16 +5398,16 @@
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF207">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG207" t="s">
         <v>211</v>
       </c>
       <c r="AH207">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI207">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ207" t="s">
         <v>38</v>
@@ -5418,19 +5415,19 @@
     </row>
     <row r="208" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF208">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG208" t="s">
         <v>212</v>
       </c>
       <c r="AH208">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI208">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AJ208" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
@@ -5438,33 +5435,33 @@
         <v>39</v>
       </c>
       <c r="AG209" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH209">
         <v>39</v>
       </c>
       <c r="AI209">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AJ209" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF210">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG210" t="s">
         <v>213</v>
       </c>
       <c r="AH210">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI210">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AJ210" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
@@ -5472,33 +5469,33 @@
         <v>40</v>
       </c>
       <c r="AG211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH211">
         <v>40</v>
       </c>
       <c r="AI211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ211" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF212">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG212" t="s">
         <v>214</v>
       </c>
       <c r="AH212">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI212">
         <v>1</v>
       </c>
       <c r="AJ212" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
@@ -5506,33 +5503,33 @@
         <v>41</v>
       </c>
       <c r="AG213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH213">
         <v>41</v>
       </c>
       <c r="AI213">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ213" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF214">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG214" t="s">
         <v>215</v>
       </c>
       <c r="AH214">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI214">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ214" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
@@ -5540,7 +5537,7 @@
         <v>42</v>
       </c>
       <c r="AG215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH215">
         <v>42</v>
@@ -5549,24 +5546,24 @@
         <v>1</v>
       </c>
       <c r="AJ215" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF216">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG216" t="s">
         <v>216</v>
       </c>
       <c r="AH216">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ216" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
@@ -5574,33 +5571,33 @@
         <v>43</v>
       </c>
       <c r="AG217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH217">
         <v>43</v>
       </c>
       <c r="AI217">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AJ217" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF218">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG218" t="s">
         <v>217</v>
       </c>
       <c r="AH218">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI218">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AJ218" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
@@ -5608,7 +5605,7 @@
         <v>44</v>
       </c>
       <c r="AG219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH219">
         <v>44</v>
@@ -5617,24 +5614,24 @@
         <v>1</v>
       </c>
       <c r="AJ219" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF220">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG220" t="s">
         <v>218</v>
       </c>
       <c r="AH220">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI220">
         <v>1</v>
       </c>
       <c r="AJ220" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
@@ -5642,7 +5639,7 @@
         <v>45</v>
       </c>
       <c r="AG221" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH221">
         <v>45</v>
@@ -5651,38 +5648,38 @@
         <v>1</v>
       </c>
       <c r="AJ221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF222">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG222" t="s">
         <v>219</v>
       </c>
       <c r="AH222">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI222">
         <v>1</v>
       </c>
       <c r="AJ222" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF223">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG223" t="s">
         <v>220</v>
       </c>
       <c r="AH223">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ223" t="s">
         <v>55</v>
@@ -5693,16 +5690,16 @@
         <v>47</v>
       </c>
       <c r="AG224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH224">
         <v>47</v>
       </c>
       <c r="AI224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ224" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
@@ -5710,7 +5707,7 @@
         <v>47</v>
       </c>
       <c r="AG225" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH225">
         <v>47</v>
@@ -5719,41 +5716,41 @@
         <v>1</v>
       </c>
       <c r="AJ225" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF226">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG226" t="s">
         <v>221</v>
       </c>
       <c r="AH226">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ226" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF227">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG227" t="s">
         <v>222</v>
       </c>
       <c r="AH227">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ227" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
@@ -5761,16 +5758,16 @@
         <v>49</v>
       </c>
       <c r="AG228" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH228">
         <v>49</v>
       </c>
       <c r="AI228">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ228" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
@@ -5778,47 +5775,47 @@
         <v>49</v>
       </c>
       <c r="AG229" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH229">
         <v>49</v>
       </c>
       <c r="AI229">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ229" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF230">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG230" t="s">
         <v>223</v>
       </c>
       <c r="AH230">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ230" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG231" t="s">
         <v>224</v>
       </c>
       <c r="AH231">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ231" t="s">
         <v>68</v>
@@ -5826,16 +5823,16 @@
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF232">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG232" t="s">
         <v>225</v>
       </c>
       <c r="AH232">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ232" t="s">
         <v>68</v>
@@ -5843,19 +5840,19 @@
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF233">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG233" t="s">
         <v>226</v>
       </c>
       <c r="AH233">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ233" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
@@ -5863,30 +5860,30 @@
         <v>53</v>
       </c>
       <c r="AG234" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH234">
         <v>53</v>
       </c>
       <c r="AI234">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ234" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF235">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG235" t="s">
         <v>227</v>
       </c>
       <c r="AH235">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ235" t="s">
         <v>68</v>
@@ -5897,16 +5894,16 @@
         <v>54</v>
       </c>
       <c r="AG236" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AH236">
         <v>54</v>
       </c>
       <c r="AI236">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ236" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
@@ -5914,33 +5911,33 @@
         <v>54</v>
       </c>
       <c r="AG237" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AH237">
         <v>54</v>
       </c>
       <c r="AI237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ237" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF238">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG238" t="s">
         <v>228</v>
       </c>
       <c r="AH238">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI238">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ238" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -5948,47 +5945,47 @@
         <v>55</v>
       </c>
       <c r="AG239" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH239">
         <v>55</v>
       </c>
       <c r="AI239">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ239" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF240">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG240" t="s">
         <v>229</v>
       </c>
       <c r="AH240">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI240">
         <v>1</v>
       </c>
       <c r="AJ240" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF241">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG241" t="s">
         <v>230</v>
       </c>
       <c r="AH241">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ241" t="s">
         <v>71</v>
@@ -5999,16 +5996,16 @@
         <v>57</v>
       </c>
       <c r="AG242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH242">
         <v>57</v>
       </c>
       <c r="AI242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ242" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
@@ -6016,7 +6013,7 @@
         <v>57</v>
       </c>
       <c r="AG243" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH243">
         <v>57</v>
@@ -6025,41 +6022,41 @@
         <v>1</v>
       </c>
       <c r="AJ243" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF244">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG244" t="s">
         <v>231</v>
       </c>
       <c r="AH244">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI244">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ244" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF245">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG245" t="s">
         <v>232</v>
       </c>
       <c r="AH245">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI245">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AJ245" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -6067,16 +6064,16 @@
         <v>59</v>
       </c>
       <c r="AG246" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH246">
         <v>59</v>
       </c>
       <c r="AI246">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ246" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -6084,47 +6081,47 @@
         <v>59</v>
       </c>
       <c r="AG247" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AH247">
         <v>59</v>
       </c>
       <c r="AI247">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ247" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF248">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG248" t="s">
         <v>233</v>
       </c>
       <c r="AH248">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ248" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF249">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG249" t="s">
         <v>234</v>
       </c>
       <c r="AH249">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ249" t="s">
         <v>76</v>
@@ -6132,16 +6129,16 @@
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF250">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG250" t="s">
         <v>235</v>
       </c>
       <c r="AH250">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ250" t="s">
         <v>76</v>
@@ -6149,19 +6146,19 @@
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF251">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG251" t="s">
         <v>236</v>
       </c>
       <c r="AH251">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ251" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6169,30 +6166,30 @@
         <v>63</v>
       </c>
       <c r="AG252" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH252">
         <v>63</v>
       </c>
       <c r="AI252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ252" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF253">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG253" t="s">
         <v>237</v>
       </c>
       <c r="AH253">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI253">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ253" t="s">
         <v>76</v>
@@ -6203,16 +6200,16 @@
         <v>64</v>
       </c>
       <c r="AG254" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH254">
         <v>64</v>
       </c>
       <c r="AI254">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ254" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -6220,33 +6217,33 @@
         <v>64</v>
       </c>
       <c r="AG255" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH255">
         <v>64</v>
       </c>
       <c r="AI255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ255" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF256">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG256" t="s">
         <v>238</v>
       </c>
       <c r="AH256">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ256" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6254,33 +6251,33 @@
         <v>65</v>
       </c>
       <c r="AG257" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH257">
         <v>65</v>
       </c>
       <c r="AI257">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ257" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF258">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG258" t="s">
         <v>239</v>
       </c>
       <c r="AH258">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI258">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ258" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
@@ -6288,7 +6285,7 @@
         <v>66</v>
       </c>
       <c r="AG259" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH259">
         <v>66</v>
@@ -6297,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="AJ259" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -6305,16 +6302,16 @@
         <v>66</v>
       </c>
       <c r="AG260" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH260">
         <v>66</v>
       </c>
       <c r="AI260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ260" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -6322,33 +6319,33 @@
         <v>66</v>
       </c>
       <c r="AG261" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH261">
         <v>66</v>
       </c>
       <c r="AI261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ261" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF262">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG262" t="s">
         <v>240</v>
       </c>
       <c r="AH262">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI262">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AJ262" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -6356,7 +6353,7 @@
         <v>67</v>
       </c>
       <c r="AG263" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH263">
         <v>67</v>
@@ -6365,7 +6362,7 @@
         <v>14</v>
       </c>
       <c r="AJ263" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -6373,16 +6370,16 @@
         <v>67</v>
       </c>
       <c r="AG264" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH264">
         <v>67</v>
       </c>
       <c r="AI264">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AJ264" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
@@ -6390,16 +6387,16 @@
         <v>67</v>
       </c>
       <c r="AG265" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH265">
         <v>67</v>
       </c>
       <c r="AI265">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ265" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -6407,7 +6404,7 @@
         <v>67</v>
       </c>
       <c r="AG266" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH266">
         <v>67</v>
@@ -6416,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="AJ266" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
@@ -6424,7 +6421,7 @@
         <v>67</v>
       </c>
       <c r="AG267" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH267">
         <v>67</v>
@@ -6433,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="AJ267" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -6441,7 +6438,7 @@
         <v>67</v>
       </c>
       <c r="AG268" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH268">
         <v>67</v>
@@ -6450,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="AJ268" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
@@ -6458,16 +6455,16 @@
         <v>67</v>
       </c>
       <c r="AG269" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH269">
         <v>67</v>
       </c>
       <c r="AI269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ269" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
@@ -6475,7 +6472,7 @@
         <v>67</v>
       </c>
       <c r="AG270" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH270">
         <v>67</v>
@@ -6484,7 +6481,7 @@
         <v>2</v>
       </c>
       <c r="AJ270" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
@@ -6492,16 +6489,16 @@
         <v>67</v>
       </c>
       <c r="AG271" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH271">
         <v>67</v>
       </c>
       <c r="AI271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ271" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
@@ -6509,16 +6506,16 @@
         <v>67</v>
       </c>
       <c r="AG272" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH272">
         <v>67</v>
       </c>
       <c r="AI272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ272" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="273" spans="32:36" x14ac:dyDescent="0.2">
@@ -6526,16 +6523,16 @@
         <v>67</v>
       </c>
       <c r="AG273" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH273">
         <v>67</v>
       </c>
       <c r="AI273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ273" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="274" spans="32:36" x14ac:dyDescent="0.2">
@@ -6543,7 +6540,7 @@
         <v>67</v>
       </c>
       <c r="AG274" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH274">
         <v>67</v>
@@ -6552,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="AJ274" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="275" spans="32:36" x14ac:dyDescent="0.2">
@@ -6560,7 +6557,7 @@
         <v>67</v>
       </c>
       <c r="AG275" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH275">
         <v>67</v>
@@ -6569,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="AJ275" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="276" spans="32:36" x14ac:dyDescent="0.2">
@@ -6577,16 +6574,16 @@
         <v>67</v>
       </c>
       <c r="AG276" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH276">
         <v>67</v>
       </c>
       <c r="AI276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ276" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="277" spans="32:36" x14ac:dyDescent="0.2">
@@ -6594,16 +6591,16 @@
         <v>67</v>
       </c>
       <c r="AG277" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH277">
         <v>67</v>
       </c>
       <c r="AI277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ277" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="278" spans="32:36" x14ac:dyDescent="0.2">
@@ -6611,7 +6608,7 @@
         <v>67</v>
       </c>
       <c r="AG278" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH278">
         <v>67</v>
@@ -6620,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="AJ278" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="279" spans="32:36" x14ac:dyDescent="0.2">
@@ -6628,16 +6625,16 @@
         <v>67</v>
       </c>
       <c r="AG279" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH279">
         <v>67</v>
       </c>
       <c r="AI279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ279" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="280" spans="32:36" x14ac:dyDescent="0.2">
@@ -6645,16 +6642,16 @@
         <v>67</v>
       </c>
       <c r="AG280" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH280">
         <v>67</v>
       </c>
       <c r="AI280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ280" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="281" spans="32:36" x14ac:dyDescent="0.2">
@@ -6662,7 +6659,7 @@
         <v>67</v>
       </c>
       <c r="AG281" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH281">
         <v>67</v>
@@ -6671,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="AJ281" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282" spans="32:36" x14ac:dyDescent="0.2">
@@ -6679,33 +6676,33 @@
         <v>67</v>
       </c>
       <c r="AG282" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH282">
         <v>67</v>
       </c>
       <c r="AI282">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ282" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="283" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF283">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG283" t="s">
         <v>241</v>
       </c>
       <c r="AH283">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI283">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ283" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="284" spans="32:36" x14ac:dyDescent="0.2">
@@ -6713,38 +6710,21 @@
         <v>68</v>
       </c>
       <c r="AG284" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH284">
         <v>68</v>
       </c>
       <c r="AI284">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ284" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="285" spans="32:36" x14ac:dyDescent="0.2">
-      <c r="AF285">
-        <v>68</v>
-      </c>
-      <c r="AG285" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH285">
-        <v>68</v>
-      </c>
-      <c r="AI285">
-        <v>1</v>
-      </c>
-      <c r="AJ285" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT305">
-    <sortCondition ref="A1:A305"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT304">
+    <sortCondition ref="A1:A304"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiMerge2in5out/midimerge2in5out_bom.xlsx
+++ b/MidiMerge2in5out/midimerge2in5out_bom.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiMerge2in5out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD42EC-5FC1-1948-9820-6717AECA7242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15507AB5-837C-E54E-94F8-6381B3C8DA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
   </bookViews>
   <sheets>
     <sheet name="midimerge2in5out" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midimerge2in5out!$A$1:$E$15</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1154,7 +1157,7 @@
   <dimension ref="A1:AJ284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E15" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6728,5 +6731,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/MidiMerge2in5out/midimerge2in5out_bom.xlsx
+++ b/MidiMerge2in5out/midimerge2in5out_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiMerge2in5out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15507AB5-837C-E54E-94F8-6381B3C8DA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2519CBFC-6341-D443-9069-C3C518177072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
   </bookViews>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:AJ284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:E15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1327,7 +1327,7 @@
         <v>245</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">

--- a/MidiMerge2in5out/midimerge2in5out_bom.xlsx
+++ b/MidiMerge2in5out/midimerge2in5out_bom.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiMerge2in5out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39668CDF-CFB9-2946-AE95-EAB29E8467FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227B9C74-00BC-D14B-AE3E-2F31077B1110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="-16220" windowWidth="28040" windowHeight="16220" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
+    <workbookView xWindow="4720" yWindow="-16220" windowWidth="28040" windowHeight="16220" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
   </bookViews>
   <sheets>
     <sheet name="midimerge2in5out" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midimerge2in5out!$A$1:$E$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midimerge2in5out!$A$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="281">
   <si>
     <t>D</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>Sockets, switches, housing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
 </sst>
 </file>
@@ -1058,11 +1061,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1074,6 +1074,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1083,13 +1096,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,8 +1125,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330199</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>123722</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1470,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ271"/>
+  <dimension ref="A1:AJ272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A47" sqref="A47:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1540,13 +1546,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -1599,19 +1605,19 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>244</v>
       </c>
       <c r="R4" t="s">
@@ -1666,13 +1672,13 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="R6" t="s">
         <v>3</v>
       </c>
@@ -1699,13 +1705,13 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="R7" t="s">
@@ -1760,13 +1766,13 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="R9" t="s">
         <v>3</v>
       </c>
@@ -1793,17 +1799,17 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="R10" t="s">
@@ -1832,32 +1838,32 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="R12" t="s">
@@ -1912,13 +1918,13 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="R14" t="s">
         <v>3</v>
       </c>
@@ -1945,17 +1951,17 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>104</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>4</v>
       </c>
       <c r="R15" t="s">
@@ -1978,17 +1984,17 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="R16" t="s">
@@ -2014,17 +2020,17 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="R17" t="s">
@@ -2070,13 +2076,13 @@
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="R19" t="s">
         <v>15</v>
       </c>
@@ -2103,17 +2109,17 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>16</v>
       </c>
       <c r="R20" t="s">
@@ -2142,17 +2148,17 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="R21" t="s">
@@ -2178,17 +2184,17 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>2</v>
       </c>
       <c r="R22" t="s">
@@ -2234,13 +2240,13 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="R24" t="s">
         <v>15</v>
       </c>
@@ -2267,17 +2273,17 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>2</v>
       </c>
       <c r="R25" t="s">
@@ -2306,17 +2312,17 @@
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>4</v>
       </c>
       <c r="R26" t="s">
@@ -2371,13 +2377,13 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="R28" t="s">
         <v>15</v>
       </c>
@@ -2404,17 +2410,17 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <v>7</v>
       </c>
       <c r="R29" t="s">
@@ -2440,17 +2446,17 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="R30" t="s">
@@ -2476,32 +2482,32 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <v>2</v>
       </c>
       <c r="R32" t="s">
@@ -2550,13 +2556,13 @@
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
       <c r="R34" t="s">
         <v>8</v>
       </c>
@@ -2583,17 +2589,17 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="R35" t="s">
@@ -2619,13 +2625,13 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="R36" t="s">
@@ -2671,13 +2677,13 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="R38" t="s">
         <v>8</v>
       </c>
@@ -2698,17 +2704,17 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="R39" t="s">
@@ -2731,17 +2737,17 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="3">
         <v>1</v>
       </c>
       <c r="R40" t="s">
@@ -2790,13 +2796,13 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
       <c r="R42" t="s">
         <v>8</v>
       </c>
@@ -2823,8 +2829,8 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="E43" s="12"/>
+      <c r="A43" s="8"/>
+      <c r="E43" s="9"/>
       <c r="R43" t="s">
         <v>8</v>
       </c>
@@ -2848,13 +2854,13 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
       <c r="R44" t="s">
         <v>8</v>
       </c>
@@ -2878,13 +2884,13 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="16"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="11"/>
       <c r="R45" t="s">
         <v>8</v>
       </c>
@@ -2911,13 +2917,13 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
       <c r="R46" t="s">
         <v>8</v>
       </c>
@@ -2943,64 +2949,48 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:29" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="R47" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" t="s">
-        <v>75</v>
-      </c>
-      <c r="T47">
-        <v>6</v>
-      </c>
-      <c r="V47" t="s">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA47">
-        <v>3</v>
-      </c>
-      <c r="AB47">
-        <v>3</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="E48" s="12"/>
+      <c r="E48" s="9"/>
       <c r="R48" t="s">
         <v>8</v>
       </c>
       <c r="S48" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="T48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V48" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="W48" t="s">
         <v>6</v>
       </c>
-      <c r="X48" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>0</v>
+      <c r="AA48">
+        <v>3</v>
+      </c>
+      <c r="AB48">
+        <v>3</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="E49" s="12"/>
+      <c r="A49" s="8"/>
+      <c r="E49" s="9"/>
       <c r="R49" t="s">
         <v>8</v>
       </c>
@@ -3017,18 +3007,15 @@
         <v>6</v>
       </c>
       <c r="X49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y49" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
+      <c r="A50" s="12"/>
+      <c r="E50" s="9"/>
       <c r="R50" t="s">
         <v>8</v>
       </c>
@@ -3044,11 +3031,19 @@
       <c r="W50" t="s">
         <v>6</v>
       </c>
-      <c r="Z50" t="s">
-        <v>120</v>
+      <c r="X50" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
       <c r="R51" t="s">
         <v>8</v>
       </c>
@@ -3065,7 +3060,7 @@
         <v>6</v>
       </c>
       <c r="Z51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
@@ -3085,7 +3080,7 @@
         <v>6</v>
       </c>
       <c r="Z52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -3104,14 +3099,8 @@
       <c r="W53" t="s">
         <v>6</v>
       </c>
-      <c r="AA53" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB53">
-        <v>1</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>110</v>
+      <c r="Z53" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -3131,10 +3120,10 @@
         <v>6</v>
       </c>
       <c r="AA54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC54" t="s">
         <v>110</v>
@@ -3145,22 +3134,25 @@
         <v>8</v>
       </c>
       <c r="S55" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="T55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V55" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="W55" t="s">
         <v>6</v>
       </c>
-      <c r="X55" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>9</v>
+      <c r="AA55" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB55">
+        <v>2</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -3180,7 +3172,7 @@
         <v>6</v>
       </c>
       <c r="X56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y56" t="s">
         <v>9</v>
@@ -3202,8 +3194,11 @@
       <c r="W57" t="s">
         <v>6</v>
       </c>
-      <c r="Z57" t="s">
-        <v>123</v>
+      <c r="X57" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -3222,14 +3217,8 @@
       <c r="W58" t="s">
         <v>6</v>
       </c>
-      <c r="AA58" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB58">
-        <v>1</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>110</v>
+      <c r="Z58" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -3252,7 +3241,7 @@
         <v>6</v>
       </c>
       <c r="AB59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC59" t="s">
         <v>110</v>
@@ -3260,22 +3249,28 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R60" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="S60" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="T60">
-        <v>9</v>
-      </c>
-      <c r="U60" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="V60" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="W60" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB60">
+        <v>2</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -3288,17 +3283,14 @@
       <c r="T61">
         <v>9</v>
       </c>
+      <c r="U61" t="s">
+        <v>124</v>
+      </c>
       <c r="V61" t="s">
         <v>50</v>
       </c>
       <c r="W61" t="s">
         <v>49</v>
-      </c>
-      <c r="X61" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -3318,10 +3310,10 @@
         <v>49</v>
       </c>
       <c r="X62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y62" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -3340,8 +3332,11 @@
       <c r="W63" t="s">
         <v>49</v>
       </c>
-      <c r="Z63" t="s">
-        <v>125</v>
+      <c r="X63" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -3361,7 +3356,7 @@
         <v>49</v>
       </c>
       <c r="Z64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -3380,14 +3375,8 @@
       <c r="W65" t="s">
         <v>49</v>
       </c>
-      <c r="AA65" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>128</v>
+      <c r="Z65" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -3407,13 +3396,13 @@
         <v>49</v>
       </c>
       <c r="AA66" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="AB66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC66" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -3433,10 +3422,10 @@
         <v>49</v>
       </c>
       <c r="AA67" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="AB67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC67" t="s">
         <v>110</v>
@@ -3459,13 +3448,13 @@
         <v>49</v>
       </c>
       <c r="AA68" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="AB68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC68" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="18:29" x14ac:dyDescent="0.2">
@@ -3485,13 +3474,13 @@
         <v>49</v>
       </c>
       <c r="AA69" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="AB69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC69" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
@@ -3511,10 +3500,10 @@
         <v>49</v>
       </c>
       <c r="AA70" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="AB70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC70" t="s">
         <v>110</v>
@@ -3537,10 +3526,10 @@
         <v>49</v>
       </c>
       <c r="AA71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC71" t="s">
         <v>110</v>
@@ -3563,10 +3552,10 @@
         <v>49</v>
       </c>
       <c r="AA72" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="AB72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC72" t="s">
         <v>110</v>
@@ -3574,25 +3563,28 @@
     </row>
     <row r="73" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R73" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="S73" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="T73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V73" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W73" t="s">
-        <v>34</v>
-      </c>
-      <c r="X73" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB73">
+        <v>8</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
@@ -3612,10 +3604,10 @@
         <v>34</v>
       </c>
       <c r="X74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y74" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -3634,8 +3626,11 @@
       <c r="W75" t="s">
         <v>34</v>
       </c>
-      <c r="Z75" t="s">
-        <v>131</v>
+      <c r="X75" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -3655,7 +3650,7 @@
         <v>34</v>
       </c>
       <c r="Z76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -3674,14 +3669,8 @@
       <c r="W77" t="s">
         <v>34</v>
       </c>
-      <c r="AA77" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB77">
-        <v>1</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>134</v>
+      <c r="Z77" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3701,10 +3690,10 @@
         <v>34</v>
       </c>
       <c r="AA78" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AB78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC78" t="s">
         <v>134</v>
@@ -3727,10 +3716,10 @@
         <v>34</v>
       </c>
       <c r="AA79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC79" t="s">
         <v>134</v>
@@ -3753,13 +3742,13 @@
         <v>34</v>
       </c>
       <c r="AA80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC80" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
@@ -3779,13 +3768,13 @@
         <v>34</v>
       </c>
       <c r="AA81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC81" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3805,13 +3794,13 @@
         <v>34</v>
       </c>
       <c r="AA82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC82" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -3831,10 +3820,10 @@
         <v>34</v>
       </c>
       <c r="AA83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC83" t="s">
         <v>134</v>
@@ -3857,10 +3846,10 @@
         <v>34</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC84" t="s">
         <v>134</v>
@@ -3883,10 +3872,10 @@
         <v>34</v>
       </c>
       <c r="AA85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC85" t="s">
         <v>134</v>
@@ -3909,10 +3898,10 @@
         <v>34</v>
       </c>
       <c r="AA86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB86">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC86" t="s">
         <v>134</v>
@@ -3935,10 +3924,10 @@
         <v>34</v>
       </c>
       <c r="AA87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB87">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC87" t="s">
         <v>134</v>
@@ -3961,10 +3950,10 @@
         <v>34</v>
       </c>
       <c r="AA88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB88">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC88" t="s">
         <v>134</v>
@@ -3987,10 +3976,10 @@
         <v>34</v>
       </c>
       <c r="AA89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB89">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC89" t="s">
         <v>134</v>
@@ -4013,13 +4002,13 @@
         <v>34</v>
       </c>
       <c r="AA90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB90">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC90" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
@@ -4039,13 +4028,13 @@
         <v>34</v>
       </c>
       <c r="AA91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB91">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC91" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
@@ -4065,10 +4054,10 @@
         <v>34</v>
       </c>
       <c r="AA92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB92">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC92" t="s">
         <v>134</v>
@@ -4091,10 +4080,10 @@
         <v>34</v>
       </c>
       <c r="AA93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB93">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC93" t="s">
         <v>134</v>
@@ -4117,10 +4106,10 @@
         <v>34</v>
       </c>
       <c r="AA94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB94">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC94" t="s">
         <v>134</v>
@@ -4128,25 +4117,28 @@
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R95" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="S95" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="T95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V95" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="W95" t="s">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>100</v>
+        <v>34</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB95">
+        <v>18</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
@@ -4166,10 +4158,10 @@
         <v>77</v>
       </c>
       <c r="X96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y96" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="18:31" x14ac:dyDescent="0.2">
@@ -4189,10 +4181,10 @@
         <v>77</v>
       </c>
       <c r="X97" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="Y97" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="18:31" x14ac:dyDescent="0.2">
@@ -4212,10 +4204,10 @@
         <v>77</v>
       </c>
       <c r="X98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Y98" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="18:31" x14ac:dyDescent="0.2">
@@ -4235,10 +4227,10 @@
         <v>77</v>
       </c>
       <c r="X99" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="Y99" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="18:31" x14ac:dyDescent="0.2">
@@ -4258,10 +4250,10 @@
         <v>77</v>
       </c>
       <c r="X100" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y100" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="18:31" x14ac:dyDescent="0.2">
@@ -4281,10 +4273,10 @@
         <v>77</v>
       </c>
       <c r="X101" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="Y101" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="18:31" x14ac:dyDescent="0.2">
@@ -4304,10 +4296,10 @@
         <v>77</v>
       </c>
       <c r="X102" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Y102" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="18:31" x14ac:dyDescent="0.2">
@@ -4327,10 +4319,10 @@
         <v>77</v>
       </c>
       <c r="X103" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Y103" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="18:31" x14ac:dyDescent="0.2">
@@ -4350,10 +4342,10 @@
         <v>77</v>
       </c>
       <c r="X104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y104" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="18:31" x14ac:dyDescent="0.2">
@@ -4373,10 +4365,10 @@
         <v>77</v>
       </c>
       <c r="X105" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y105" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="18:31" x14ac:dyDescent="0.2">
@@ -4396,10 +4388,10 @@
         <v>77</v>
       </c>
       <c r="X106" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Y106" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="18:31" x14ac:dyDescent="0.2">
@@ -4419,10 +4411,10 @@
         <v>77</v>
       </c>
       <c r="X107" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y107" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="18:31" x14ac:dyDescent="0.2">
@@ -4441,14 +4433,11 @@
       <c r="W108" t="s">
         <v>77</v>
       </c>
-      <c r="AA108" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB108">
-        <v>1</v>
-      </c>
-      <c r="AC108" t="s">
-        <v>105</v>
+      <c r="X108" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="18:31" x14ac:dyDescent="0.2">
@@ -4468,10 +4457,10 @@
         <v>77</v>
       </c>
       <c r="AA109" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="AB109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC109" t="s">
         <v>105</v>
@@ -4494,78 +4483,87 @@
         <v>77</v>
       </c>
       <c r="AA110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB110">
+        <v>2</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="R111" t="s">
+        <v>81</v>
+      </c>
+      <c r="S111" t="s">
+        <v>82</v>
+      </c>
+      <c r="T111">
+        <v>11</v>
+      </c>
+      <c r="V111" t="s">
+        <v>80</v>
+      </c>
+      <c r="W111" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s">
         <v>156</v>
       </c>
-      <c r="AB110">
+      <c r="AB111">
         <v>3</v>
       </c>
-      <c r="AC110" t="s">
+      <c r="AC111" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="AD111" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE111" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="112" spans="18:31" x14ac:dyDescent="0.2">
       <c r="AD112" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AE112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD113" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD114" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="AE114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD115" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AE115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD116" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD117" t="s">
         <v>81</v>
       </c>
-      <c r="AE116" t="s">
+      <c r="AE117" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="30:36" x14ac:dyDescent="0.2">
-      <c r="AF117">
-        <v>1</v>
-      </c>
-      <c r="AG117" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH117">
-        <v>1</v>
-      </c>
-      <c r="AI117">
-        <v>1</v>
-      </c>
-      <c r="AJ117" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="118" spans="30:36" x14ac:dyDescent="0.2">
@@ -4579,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="AI118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ118" t="s">
         <v>1</v>
@@ -4596,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="AI119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ119" t="s">
         <v>1</v>
@@ -4613,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="AI120">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ120" t="s">
         <v>1</v>
@@ -4630,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="AI121">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ121" t="s">
         <v>1</v>
@@ -4647,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="AI122">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ122" t="s">
         <v>1</v>
@@ -4655,19 +4653,19 @@
     </row>
     <row r="123" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AH123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ123" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="30:36" x14ac:dyDescent="0.2">
@@ -4681,27 +4679,27 @@
         <v>2</v>
       </c>
       <c r="AI124">
+        <v>1</v>
+      </c>
+      <c r="AJ124" t="s">
         <v>5</v>
-      </c>
-      <c r="AJ124" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="125" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AH125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI125">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ125" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="30:36" x14ac:dyDescent="0.2">
@@ -4715,27 +4713,27 @@
         <v>3</v>
       </c>
       <c r="AI126">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ126" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ127" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="30:36" x14ac:dyDescent="0.2">
@@ -4749,27 +4747,27 @@
         <v>4</v>
       </c>
       <c r="AI128">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ128" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF129">
+        <v>4</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH129">
+        <v>4</v>
+      </c>
+      <c r="AI129">
         <v>5</v>
       </c>
-      <c r="AG129" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH129">
-        <v>5</v>
-      </c>
-      <c r="AI129">
-        <v>2</v>
-      </c>
       <c r="AJ129" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="32:36" x14ac:dyDescent="0.2">
@@ -4783,27 +4781,27 @@
         <v>5</v>
       </c>
       <c r="AI130">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ130" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF131">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AH131">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ131" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="32:36" x14ac:dyDescent="0.2">
@@ -4817,27 +4815,27 @@
         <v>6</v>
       </c>
       <c r="AI132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ132" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AH133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI133">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AJ133" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="32:36" x14ac:dyDescent="0.2">
@@ -4851,41 +4849,41 @@
         <v>7</v>
       </c>
       <c r="AI134">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AJ134" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG135" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF136">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH136">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ136" t="s">
         <v>12</v>
@@ -4893,33 +4891,33 @@
     </row>
     <row r="137" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ137" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF138">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH138">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ138" t="s">
         <v>17</v>
@@ -4927,33 +4925,33 @@
     </row>
     <row r="139" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF139">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH139">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF140">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH140">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ140" t="s">
         <v>18</v>
@@ -4961,33 +4959,33 @@
     </row>
     <row r="141" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF141">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH141">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF142">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AH142">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ142" t="s">
         <v>19</v>
@@ -4995,19 +4993,19 @@
     </row>
     <row r="143" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF143">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH143">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ143" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="32:36" x14ac:dyDescent="0.2">
@@ -5021,27 +5019,27 @@
         <v>16</v>
       </c>
       <c r="AI144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ144" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF145">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH145">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ145" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="32:36" x14ac:dyDescent="0.2">
@@ -5055,27 +5053,27 @@
         <v>17</v>
       </c>
       <c r="AI146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ146" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF147">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG147" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AH147">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ147" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
@@ -5089,27 +5087,27 @@
         <v>18</v>
       </c>
       <c r="AI148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ148" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF149">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG149" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH149">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ149" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
@@ -5123,27 +5121,27 @@
         <v>19</v>
       </c>
       <c r="AI150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ150" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF151">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG151" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="AH151">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI151">
         <v>2</v>
       </c>
       <c r="AJ151" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="32:36" x14ac:dyDescent="0.2">
@@ -5160,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="AJ152" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="32:36" x14ac:dyDescent="0.2">
@@ -5177,7 +5175,7 @@
         <v>2</v>
       </c>
       <c r="AJ153" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="32:36" x14ac:dyDescent="0.2">
@@ -5194,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="AJ154" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155" spans="32:36" x14ac:dyDescent="0.2">
@@ -5211,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AJ155" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
@@ -5228,7 +5226,7 @@
         <v>2</v>
       </c>
       <c r="AJ156" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="32:36" x14ac:dyDescent="0.2">
@@ -5245,7 +5243,7 @@
         <v>2</v>
       </c>
       <c r="AJ157" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
@@ -5262,7 +5260,7 @@
         <v>2</v>
       </c>
       <c r="AJ158" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="32:36" x14ac:dyDescent="0.2">
@@ -5276,10 +5274,10 @@
         <v>20</v>
       </c>
       <c r="AI159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ159" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="32:36" x14ac:dyDescent="0.2">
@@ -5293,10 +5291,10 @@
         <v>20</v>
       </c>
       <c r="AI160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ160" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="32:36" x14ac:dyDescent="0.2">
@@ -5313,7 +5311,7 @@
         <v>2</v>
       </c>
       <c r="AJ161" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
@@ -5330,7 +5328,7 @@
         <v>2</v>
       </c>
       <c r="AJ162" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
@@ -5347,7 +5345,7 @@
         <v>2</v>
       </c>
       <c r="AJ163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
@@ -5364,7 +5362,7 @@
         <v>2</v>
       </c>
       <c r="AJ164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -5378,10 +5376,10 @@
         <v>20</v>
       </c>
       <c r="AI165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ165" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
@@ -5395,10 +5393,10 @@
         <v>20</v>
       </c>
       <c r="AI166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
@@ -5412,10 +5410,10 @@
         <v>20</v>
       </c>
       <c r="AI167">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ167" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
@@ -5429,10 +5427,10 @@
         <v>20</v>
       </c>
       <c r="AI168">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ168" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
@@ -5446,27 +5444,27 @@
         <v>20</v>
       </c>
       <c r="AI169">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ169" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF170">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG170" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="AH170">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI170">
         <v>2</v>
       </c>
       <c r="AJ170" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
@@ -5480,24 +5478,24 @@
         <v>21</v>
       </c>
       <c r="AI171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ171" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF172">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG172" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH172">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ172" t="s">
         <v>32</v>
@@ -5505,16 +5503,16 @@
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF173">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG173" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AH173">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ173" t="s">
         <v>32</v>
@@ -5522,19 +5520,19 @@
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF174">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG174" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH174">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ174" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
@@ -5548,27 +5546,27 @@
         <v>24</v>
       </c>
       <c r="AI175">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ175" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF176">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG176" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH176">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ176" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
@@ -5582,27 +5580,27 @@
         <v>25</v>
       </c>
       <c r="AI177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ177" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF178">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH178">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ178" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
@@ -5616,24 +5614,24 @@
         <v>26</v>
       </c>
       <c r="AI179">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ179" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF180">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG180" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH180">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ180" t="s">
         <v>31</v>
@@ -5653,24 +5651,24 @@
         <v>2</v>
       </c>
       <c r="AJ181" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF182">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG182" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH182">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ182" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
@@ -5684,41 +5682,41 @@
         <v>28</v>
       </c>
       <c r="AI183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ183" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF184">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG184" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH184">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI184">
         <v>2</v>
       </c>
       <c r="AJ184" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH185">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ185" t="s">
         <v>33</v>
@@ -5726,16 +5724,16 @@
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG186" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH186">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI186">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ186" t="s">
         <v>33</v>
@@ -5743,16 +5741,16 @@
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF187">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH187">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI187">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ187" t="s">
         <v>33</v>
@@ -5760,16 +5758,16 @@
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF188">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG188" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH188">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI188">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ188" t="s">
         <v>33</v>
@@ -5777,16 +5775,16 @@
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF189">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG189" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AH189">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI189">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ189" t="s">
         <v>33</v>
@@ -5803,41 +5801,41 @@
         <v>34</v>
       </c>
       <c r="AI190">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ190" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF191">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH191">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI191">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ191" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF192">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG192" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH192">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI192">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ192" t="s">
         <v>33</v>
@@ -5845,16 +5843,16 @@
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF193">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG193" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH193">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI193">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ193" t="s">
         <v>33</v>
@@ -5862,16 +5860,16 @@
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF194">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH194">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI194">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ194" t="s">
         <v>33</v>
@@ -5879,19 +5877,19 @@
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF195">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG195" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH195">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI195">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AJ195" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
@@ -5905,27 +5903,27 @@
         <v>39</v>
       </c>
       <c r="AI196">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AJ196" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF197">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG197" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH197">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI197">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AJ197" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
@@ -5939,27 +5937,27 @@
         <v>40</v>
       </c>
       <c r="AI198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ198" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF199">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH199">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI199">
         <v>1</v>
       </c>
       <c r="AJ199" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
@@ -5973,27 +5971,27 @@
         <v>41</v>
       </c>
       <c r="AI200">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ200" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF201">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH201">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI201">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ201" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
@@ -6010,24 +6008,24 @@
         <v>1</v>
       </c>
       <c r="AJ202" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF203">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH203">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ203" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
@@ -6041,27 +6039,27 @@
         <v>43</v>
       </c>
       <c r="AI204">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AJ204" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="205" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF205">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH205">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI205">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AJ205" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206" spans="32:36" x14ac:dyDescent="0.2">
@@ -6078,24 +6076,24 @@
         <v>1</v>
       </c>
       <c r="AJ206" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF207">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH207">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI207">
         <v>1</v>
       </c>
       <c r="AJ207" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="208" spans="32:36" x14ac:dyDescent="0.2">
@@ -6112,38 +6110,38 @@
         <v>1</v>
       </c>
       <c r="AJ208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF209">
+        <v>45</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH209">
+        <v>45</v>
+      </c>
+      <c r="AI209">
+        <v>1</v>
+      </c>
+      <c r="AJ209" t="s">
         <v>46</v>
-      </c>
-      <c r="AG209" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH209">
-        <v>46</v>
-      </c>
-      <c r="AI209">
-        <v>1</v>
-      </c>
-      <c r="AJ209" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF210">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH210">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ210" t="s">
         <v>48</v>
@@ -6160,10 +6158,10 @@
         <v>47</v>
       </c>
       <c r="AI211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ211" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212" spans="32:36" x14ac:dyDescent="0.2">
@@ -6180,41 +6178,41 @@
         <v>1</v>
       </c>
       <c r="AJ212" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF213">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG213" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH213">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ213" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF214">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG214" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH214">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ214" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
@@ -6228,10 +6226,10 @@
         <v>49</v>
       </c>
       <c r="AI215">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ215" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
@@ -6245,41 +6243,41 @@
         <v>49</v>
       </c>
       <c r="AI216">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ216" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF217">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG217" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH217">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ217" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF218">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG218" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH218">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ218" t="s">
         <v>59</v>
@@ -6287,16 +6285,16 @@
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF219">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG219" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH219">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ219" t="s">
         <v>59</v>
@@ -6304,19 +6302,19 @@
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF220">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG220" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH220">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ220" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
@@ -6330,24 +6328,24 @@
         <v>53</v>
       </c>
       <c r="AI221">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ221" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF222">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG222" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH222">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ222" t="s">
         <v>59</v>
@@ -6364,10 +6362,10 @@
         <v>54</v>
       </c>
       <c r="AI223">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ223" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="32:36" x14ac:dyDescent="0.2">
@@ -6381,27 +6379,27 @@
         <v>54</v>
       </c>
       <c r="AI224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ224" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF225">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG225" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH225">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI225">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ225" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
@@ -6415,41 +6413,41 @@
         <v>55</v>
       </c>
       <c r="AI226">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ226" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF227">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG227" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH227">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI227">
         <v>1</v>
       </c>
       <c r="AJ227" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF228">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG228" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH228">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ228" t="s">
         <v>62</v>
@@ -6466,10 +6464,10 @@
         <v>57</v>
       </c>
       <c r="AI229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ229" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="230" spans="32:36" x14ac:dyDescent="0.2">
@@ -6486,41 +6484,41 @@
         <v>1</v>
       </c>
       <c r="AJ230" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF231">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG231" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH231">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ231" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF232">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG232" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH232">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI232">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ232" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
@@ -6534,10 +6532,10 @@
         <v>59</v>
       </c>
       <c r="AI233">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ233" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
@@ -6551,41 +6549,41 @@
         <v>59</v>
       </c>
       <c r="AI234">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ234" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF235">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG235" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH235">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ235" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF236">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG236" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH236">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ236" t="s">
         <v>67</v>
@@ -6593,16 +6591,16 @@
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF237">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG237" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH237">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ237" t="s">
         <v>67</v>
@@ -6610,19 +6608,19 @@
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF238">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG238" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH238">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ238" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
@@ -6636,24 +6634,24 @@
         <v>63</v>
       </c>
       <c r="AI239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ239" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF240">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH240">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ240" t="s">
         <v>67</v>
@@ -6670,10 +6668,10 @@
         <v>64</v>
       </c>
       <c r="AI241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ241" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="242" spans="32:36" x14ac:dyDescent="0.2">
@@ -6687,27 +6685,27 @@
         <v>64</v>
       </c>
       <c r="AI242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ242" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF243">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG243" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH243">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ243" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
@@ -6721,27 +6719,27 @@
         <v>65</v>
       </c>
       <c r="AI244">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ244" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF245">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG245" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AH245">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI245">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ245" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
@@ -6758,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="AJ246" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -6772,10 +6770,10 @@
         <v>66</v>
       </c>
       <c r="AI247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ247" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6789,27 +6787,27 @@
         <v>66</v>
       </c>
       <c r="AI248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ248" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF249">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG249" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH249">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI249">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ249" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
@@ -6826,7 +6824,7 @@
         <v>14</v>
       </c>
       <c r="AJ250" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
@@ -6840,10 +6838,10 @@
         <v>67</v>
       </c>
       <c r="AI251">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ251" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6857,10 +6855,10 @@
         <v>67</v>
       </c>
       <c r="AI252">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ252" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
@@ -6877,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="AJ253" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6894,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="AJ254" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -6911,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="AJ255" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6925,10 +6923,10 @@
         <v>67</v>
       </c>
       <c r="AI256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ256" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6945,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="AJ257" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6959,10 +6957,10 @@
         <v>67</v>
       </c>
       <c r="AI258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ258" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
@@ -6976,10 +6974,10 @@
         <v>67</v>
       </c>
       <c r="AI259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ259" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -6993,10 +6991,10 @@
         <v>67</v>
       </c>
       <c r="AI260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ260" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -7013,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="AJ261" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -7030,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="AJ262" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -7044,10 +7042,10 @@
         <v>67</v>
       </c>
       <c r="AI263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ263" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -7061,10 +7059,10 @@
         <v>67</v>
       </c>
       <c r="AI264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ264" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
@@ -7081,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="AJ265" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -7095,10 +7093,10 @@
         <v>67</v>
       </c>
       <c r="AI266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ266" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
@@ -7112,10 +7110,10 @@
         <v>67</v>
       </c>
       <c r="AI267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ267" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -7132,7 +7130,7 @@
         <v>1</v>
       </c>
       <c r="AJ268" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
@@ -7146,27 +7144,27 @@
         <v>67</v>
       </c>
       <c r="AI269">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ269" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF270">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG270" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH270">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI270">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ270" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
@@ -7180,21 +7178,39 @@
         <v>68</v>
       </c>
       <c r="AI271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ271" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="272" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF272">
+        <v>68</v>
+      </c>
+      <c r="AG272" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH272">
+        <v>68</v>
+      </c>
+      <c r="AI272">
+        <v>1</v>
+      </c>
+      <c r="AJ272" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT291">
-    <sortCondition ref="A1:A291"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT292">
+    <sortCondition ref="A1:A292"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiMerge2in5out/midimerge2in5out_bom.xlsx
+++ b/MidiMerge2in5out/midimerge2in5out_bom.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiMerge2in5out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227B9C74-00BC-D14B-AE3E-2F31077B1110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEB06DA-EF92-A848-A294-F13EAD421CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="-16220" windowWidth="28040" windowHeight="16220" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
   </bookViews>
   <sheets>
     <sheet name="midimerge2in5out" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">midimerge2in5out!$A$1:$E$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">midimerge2in5out!$A$1:$E$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="282">
   <si>
     <t>D</t>
   </si>
@@ -845,9 +845,6 @@
     <t xml:space="preserve">* Follow polarity orientation for LEDs. Square pad on PCB is for the negative pin. </t>
   </si>
   <si>
-    <t>* Connect a power source and meassure +5V rail such as on IC socket for 74HC14 between Pin14 and Pin7.</t>
-  </si>
-  <si>
     <t>MIDI MERGER / SPLITTER 2in-&gt;5out</t>
   </si>
   <si>
@@ -876,6 +873,12 @@
   </si>
   <si>
     <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
   </si>
 </sst>
 </file>
@@ -948,7 +951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1057,11 +1060,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1069,7 +1092,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1084,18 +1106,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,14 +1153,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>977899</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>32239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>330199</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>98322</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>314222</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1476,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ272"/>
+  <dimension ref="A1:AJ273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1546,13 +1580,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +1742,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -1843,10 +1877,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1956,7 +1990,7 @@
         <v>234</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D15" s="4">
         <v>104</v>
@@ -2378,7 +2412,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2487,10 +2521,10 @@
         <v>33</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -2678,7 +2712,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2796,13 +2830,13 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
       <c r="R42" t="s">
         <v>8</v>
       </c>
@@ -2829,38 +2863,20 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="R43" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" t="s">
-        <v>75</v>
-      </c>
-      <c r="T43">
-        <v>6</v>
-      </c>
-      <c r="V43" t="s">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s">
-        <v>6</v>
-      </c>
-      <c r="X43" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:29" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="24"/>
       <c r="R44" t="s">
         <v>8</v>
       </c>
@@ -2877,20 +2893,20 @@
         <v>6</v>
       </c>
       <c r="X44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y44" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="20"/>
       <c r="R45" t="s">
         <v>8</v>
       </c>
@@ -2906,24 +2922,21 @@
       <c r="W45" t="s">
         <v>6</v>
       </c>
-      <c r="AA45">
-        <v>1</v>
-      </c>
-      <c r="AB45">
-        <v>1</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>110</v>
+      <c r="X45" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
+      <c r="A46" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="10"/>
       <c r="R46" t="s">
         <v>8</v>
       </c>
@@ -2940,82 +2953,92 @@
         <v>6</v>
       </c>
       <c r="AA46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC46" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="20"/>
+      <c r="R47" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" t="s">
+        <v>75</v>
+      </c>
+      <c r="T47">
+        <v>6</v>
+      </c>
+      <c r="V47" t="s">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="R48" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" t="s">
-        <v>75</v>
-      </c>
-      <c r="T48">
-        <v>6</v>
-      </c>
-      <c r="V48" t="s">
-        <v>74</v>
-      </c>
-      <c r="W48" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA48">
-        <v>3</v>
-      </c>
-      <c r="AB48">
-        <v>3</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="E49" s="9"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="E49" s="8"/>
       <c r="R49" t="s">
         <v>8</v>
       </c>
       <c r="S49" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="T49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V49" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="W49" t="s">
         <v>6</v>
       </c>
-      <c r="X49" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>0</v>
+      <c r="AA49">
+        <v>3</v>
+      </c>
+      <c r="AB49">
+        <v>3</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="E50" s="9"/>
+      <c r="A50" s="7"/>
+      <c r="E50" s="8"/>
       <c r="R50" t="s">
         <v>8</v>
       </c>
@@ -3032,18 +3055,15 @@
         <v>6</v>
       </c>
       <c r="X50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y50" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
+      <c r="A51" s="11"/>
+      <c r="E51" s="8"/>
       <c r="R51" t="s">
         <v>8</v>
       </c>
@@ -3059,11 +3079,19 @@
       <c r="W51" t="s">
         <v>6</v>
       </c>
-      <c r="Z51" t="s">
-        <v>120</v>
+      <c r="X51" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
       <c r="R52" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +3108,7 @@
         <v>6</v>
       </c>
       <c r="Z52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -3100,7 +3128,7 @@
         <v>6</v>
       </c>
       <c r="Z53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -3119,14 +3147,8 @@
       <c r="W54" t="s">
         <v>6</v>
       </c>
-      <c r="AA54" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB54">
-        <v>1</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>110</v>
+      <c r="Z54" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -3146,10 +3168,10 @@
         <v>6</v>
       </c>
       <c r="AA55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC55" t="s">
         <v>110</v>
@@ -3160,22 +3182,25 @@
         <v>8</v>
       </c>
       <c r="S56" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="T56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V56" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="W56" t="s">
         <v>6</v>
       </c>
-      <c r="X56" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>9</v>
+      <c r="AA56" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB56">
+        <v>2</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -3195,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="X57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y57" t="s">
         <v>9</v>
@@ -3217,8 +3242,11 @@
       <c r="W58" t="s">
         <v>6</v>
       </c>
-      <c r="Z58" t="s">
-        <v>123</v>
+      <c r="X58" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
@@ -3237,14 +3265,8 @@
       <c r="W59" t="s">
         <v>6</v>
       </c>
-      <c r="AA59" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB59">
-        <v>1</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>110</v>
+      <c r="Z59" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -3267,7 +3289,7 @@
         <v>6</v>
       </c>
       <c r="AB60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC60" t="s">
         <v>110</v>
@@ -3275,22 +3297,28 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="R61" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="S61" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="T61">
-        <v>9</v>
-      </c>
-      <c r="U61" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="V61" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="W61" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB61">
+        <v>2</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -3303,17 +3331,14 @@
       <c r="T62">
         <v>9</v>
       </c>
+      <c r="U62" t="s">
+        <v>124</v>
+      </c>
       <c r="V62" t="s">
         <v>50</v>
       </c>
       <c r="W62" t="s">
         <v>49</v>
-      </c>
-      <c r="X62" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -3333,10 +3358,10 @@
         <v>49</v>
       </c>
       <c r="X63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y63" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -3355,8 +3380,11 @@
       <c r="W64" t="s">
         <v>49</v>
       </c>
-      <c r="Z64" t="s">
-        <v>125</v>
+      <c r="X64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="18:29" x14ac:dyDescent="0.2">
@@ -3376,7 +3404,7 @@
         <v>49</v>
       </c>
       <c r="Z65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="18:29" x14ac:dyDescent="0.2">
@@ -3395,14 +3423,8 @@
       <c r="W66" t="s">
         <v>49</v>
       </c>
-      <c r="AA66" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB66">
-        <v>1</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>128</v>
+      <c r="Z66" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="18:29" x14ac:dyDescent="0.2">
@@ -3422,13 +3444,13 @@
         <v>49</v>
       </c>
       <c r="AA67" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="AB67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC67" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="18:29" x14ac:dyDescent="0.2">
@@ -3448,10 +3470,10 @@
         <v>49</v>
       </c>
       <c r="AA68" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="AB68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC68" t="s">
         <v>110</v>
@@ -3474,13 +3496,13 @@
         <v>49</v>
       </c>
       <c r="AA69" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="AB69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC69" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="18:29" x14ac:dyDescent="0.2">
@@ -3500,13 +3522,13 @@
         <v>49</v>
       </c>
       <c r="AA70" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="AB70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC70" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="18:29" x14ac:dyDescent="0.2">
@@ -3526,10 +3548,10 @@
         <v>49</v>
       </c>
       <c r="AA71" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="AB71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC71" t="s">
         <v>110</v>
@@ -3552,10 +3574,10 @@
         <v>49</v>
       </c>
       <c r="AA72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC72" t="s">
         <v>110</v>
@@ -3578,10 +3600,10 @@
         <v>49</v>
       </c>
       <c r="AA73" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="AB73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC73" t="s">
         <v>110</v>
@@ -3589,25 +3611,28 @@
     </row>
     <row r="74" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R74" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="S74" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="T74">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V74" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W74" t="s">
-        <v>34</v>
-      </c>
-      <c r="X74" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB74">
+        <v>8</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="18:29" x14ac:dyDescent="0.2">
@@ -3627,10 +3652,10 @@
         <v>34</v>
       </c>
       <c r="X75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y75" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="18:29" x14ac:dyDescent="0.2">
@@ -3649,8 +3674,11 @@
       <c r="W76" t="s">
         <v>34</v>
       </c>
-      <c r="Z76" t="s">
-        <v>131</v>
+      <c r="X76" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="18:29" x14ac:dyDescent="0.2">
@@ -3670,7 +3698,7 @@
         <v>34</v>
       </c>
       <c r="Z77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="18:29" x14ac:dyDescent="0.2">
@@ -3689,14 +3717,8 @@
       <c r="W78" t="s">
         <v>34</v>
       </c>
-      <c r="AA78" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB78">
-        <v>1</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>134</v>
+      <c r="Z78" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="18:29" x14ac:dyDescent="0.2">
@@ -3716,10 +3738,10 @@
         <v>34</v>
       </c>
       <c r="AA79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AB79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC79" t="s">
         <v>134</v>
@@ -3742,10 +3764,10 @@
         <v>34</v>
       </c>
       <c r="AA80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC80" t="s">
         <v>134</v>
@@ -3768,13 +3790,13 @@
         <v>34</v>
       </c>
       <c r="AA81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC81" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
@@ -3794,13 +3816,13 @@
         <v>34</v>
       </c>
       <c r="AA82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
@@ -3820,13 +3842,13 @@
         <v>34</v>
       </c>
       <c r="AA83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC83" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
@@ -3846,10 +3868,10 @@
         <v>34</v>
       </c>
       <c r="AA84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC84" t="s">
         <v>134</v>
@@ -3872,10 +3894,10 @@
         <v>34</v>
       </c>
       <c r="AA85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC85" t="s">
         <v>134</v>
@@ -3898,10 +3920,10 @@
         <v>34</v>
       </c>
       <c r="AA86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC86" t="s">
         <v>134</v>
@@ -3924,10 +3946,10 @@
         <v>34</v>
       </c>
       <c r="AA87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC87" t="s">
         <v>134</v>
@@ -3950,10 +3972,10 @@
         <v>34</v>
       </c>
       <c r="AA88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB88">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC88" t="s">
         <v>134</v>
@@ -3976,10 +3998,10 @@
         <v>34</v>
       </c>
       <c r="AA89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB89">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC89" t="s">
         <v>134</v>
@@ -4002,10 +4024,10 @@
         <v>34</v>
       </c>
       <c r="AA90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC90" t="s">
         <v>134</v>
@@ -4028,13 +4050,13 @@
         <v>34</v>
       </c>
       <c r="AA91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB91">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC91" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
@@ -4054,13 +4076,13 @@
         <v>34</v>
       </c>
       <c r="AA92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC92" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="18:29" x14ac:dyDescent="0.2">
@@ -4080,10 +4102,10 @@
         <v>34</v>
       </c>
       <c r="AA93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB93">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC93" t="s">
         <v>134</v>
@@ -4106,10 +4128,10 @@
         <v>34</v>
       </c>
       <c r="AA94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB94">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC94" t="s">
         <v>134</v>
@@ -4132,10 +4154,10 @@
         <v>34</v>
       </c>
       <c r="AA95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB95">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC95" t="s">
         <v>134</v>
@@ -4143,28 +4165,31 @@
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R96" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="S96" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="T96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V96" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="W96" t="s">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="18:31" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB96">
+        <v>18</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R97" t="s">
         <v>81</v>
       </c>
@@ -4181,13 +4206,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Y97" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="18:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R98" t="s">
         <v>81</v>
       </c>
@@ -4204,13 +4229,13 @@
         <v>77</v>
       </c>
       <c r="X98" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="Y98" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="18:31" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R99" t="s">
         <v>81</v>
       </c>
@@ -4227,13 +4252,13 @@
         <v>77</v>
       </c>
       <c r="X99" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Y99" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="18:31" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R100" t="s">
         <v>81</v>
       </c>
@@ -4250,13 +4275,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="Y100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="18:31" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R101" t="s">
         <v>81</v>
       </c>
@@ -4273,13 +4298,13 @@
         <v>77</v>
       </c>
       <c r="X101" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y101" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="102" spans="18:31" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R102" t="s">
         <v>81</v>
       </c>
@@ -4296,13 +4321,13 @@
         <v>77</v>
       </c>
       <c r="X102" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="Y102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="18:31" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R103" t="s">
         <v>81</v>
       </c>
@@ -4319,13 +4344,13 @@
         <v>77</v>
       </c>
       <c r="X103" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Y103" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="18:31" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R104" t="s">
         <v>81</v>
       </c>
@@ -4342,13 +4367,13 @@
         <v>77</v>
       </c>
       <c r="X104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Y104" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="18:31" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R105" t="s">
         <v>81</v>
       </c>
@@ -4365,13 +4390,13 @@
         <v>77</v>
       </c>
       <c r="X105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y105" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="106" spans="18:31" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R106" t="s">
         <v>81</v>
       </c>
@@ -4388,13 +4413,13 @@
         <v>77</v>
       </c>
       <c r="X106" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y106" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107" spans="18:31" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R107" t="s">
         <v>81</v>
       </c>
@@ -4411,13 +4436,13 @@
         <v>77</v>
       </c>
       <c r="X107" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Y107" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="18:31" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R108" t="s">
         <v>81</v>
       </c>
@@ -4434,13 +4459,13 @@
         <v>77</v>
       </c>
       <c r="X108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y108" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="18:31" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R109" t="s">
         <v>81</v>
       </c>
@@ -4456,17 +4481,14 @@
       <c r="W109" t="s">
         <v>77</v>
       </c>
-      <c r="AA109" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB109">
-        <v>1</v>
-      </c>
-      <c r="AC109" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" spans="18:31" x14ac:dyDescent="0.2">
+      <c r="X109" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R110" t="s">
         <v>81</v>
       </c>
@@ -4483,16 +4505,16 @@
         <v>77</v>
       </c>
       <c r="AA110" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="AB110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC110" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="18:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R111" t="s">
         <v>81</v>
       </c>
@@ -4509,78 +4531,87 @@
         <v>77</v>
       </c>
       <c r="AA111" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB111">
+        <v>2</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="18:29" x14ac:dyDescent="0.2">
+      <c r="R112" t="s">
+        <v>81</v>
+      </c>
+      <c r="S112" t="s">
+        <v>82</v>
+      </c>
+      <c r="T112">
+        <v>11</v>
+      </c>
+      <c r="V112" t="s">
+        <v>80</v>
+      </c>
+      <c r="W112" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA112" t="s">
         <v>156</v>
       </c>
-      <c r="AB111">
+      <c r="AB112">
         <v>3</v>
       </c>
-      <c r="AC111" t="s">
+      <c r="AC112" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="18:31" x14ac:dyDescent="0.2">
-      <c r="AD112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE112" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="113" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD113" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AE113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD114" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD115" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="AE115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD116" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AE116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD117" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD118" t="s">
         <v>81</v>
       </c>
-      <c r="AE117" t="s">
+      <c r="AE118" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="118" spans="30:36" x14ac:dyDescent="0.2">
-      <c r="AF118">
-        <v>1</v>
-      </c>
-      <c r="AG118" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH118">
-        <v>1</v>
-      </c>
-      <c r="AI118">
-        <v>1</v>
-      </c>
-      <c r="AJ118" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="119" spans="30:36" x14ac:dyDescent="0.2">
@@ -4594,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AI119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ119" t="s">
         <v>1</v>
@@ -4611,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="AI120">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ120" t="s">
         <v>1</v>
@@ -4628,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="AI121">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AJ121" t="s">
         <v>1</v>
@@ -4645,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="AI122">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ122" t="s">
         <v>1</v>
@@ -4662,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="AI123">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ123" t="s">
         <v>1</v>
@@ -4670,19 +4701,19 @@
     </row>
     <row r="124" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG124" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AH124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ124" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="30:36" x14ac:dyDescent="0.2">
@@ -4696,27 +4727,27 @@
         <v>2</v>
       </c>
       <c r="AI125">
+        <v>1</v>
+      </c>
+      <c r="AJ125" t="s">
         <v>5</v>
-      </c>
-      <c r="AJ125" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="126" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AH126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ126" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="30:36" x14ac:dyDescent="0.2">
@@ -4730,27 +4761,27 @@
         <v>3</v>
       </c>
       <c r="AI127">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ127" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AF128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ128" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="32:36" x14ac:dyDescent="0.2">
@@ -4764,27 +4795,27 @@
         <v>4</v>
       </c>
       <c r="AI129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ129" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF130">
+        <v>4</v>
+      </c>
+      <c r="AG130" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH130">
+        <v>4</v>
+      </c>
+      <c r="AI130">
         <v>5</v>
       </c>
-      <c r="AG130" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH130">
-        <v>5</v>
-      </c>
-      <c r="AI130">
-        <v>2</v>
-      </c>
       <c r="AJ130" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="32:36" x14ac:dyDescent="0.2">
@@ -4798,27 +4829,27 @@
         <v>5</v>
       </c>
       <c r="AI131">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ131" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG132" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AH132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ132" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="32:36" x14ac:dyDescent="0.2">
@@ -4832,27 +4863,27 @@
         <v>6</v>
       </c>
       <c r="AI133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ133" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AH134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI134">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AJ134" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="32:36" x14ac:dyDescent="0.2">
@@ -4866,41 +4897,41 @@
         <v>7</v>
       </c>
       <c r="AI135">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AJ135" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF136">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH136">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ137" t="s">
         <v>12</v>
@@ -4908,33 +4939,33 @@
     </row>
     <row r="138" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF138">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AH138">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ138" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF139">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AH139">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ139" t="s">
         <v>17</v>
@@ -4942,33 +4973,33 @@
     </row>
     <row r="140" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF140">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH140">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF141">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH141">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ141" t="s">
         <v>18</v>
@@ -4976,33 +5007,33 @@
     </row>
     <row r="142" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF142">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH142">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF143">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AH143">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ143" t="s">
         <v>19</v>
@@ -5010,19 +5041,19 @@
     </row>
     <row r="144" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF144">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH144">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ144" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="32:36" x14ac:dyDescent="0.2">
@@ -5036,27 +5067,27 @@
         <v>16</v>
       </c>
       <c r="AI145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ145" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF146">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG146" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH146">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ146" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="32:36" x14ac:dyDescent="0.2">
@@ -5070,27 +5101,27 @@
         <v>17</v>
       </c>
       <c r="AI147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ147" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF148">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG148" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AH148">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ148" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="32:36" x14ac:dyDescent="0.2">
@@ -5104,27 +5135,27 @@
         <v>18</v>
       </c>
       <c r="AI149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ149" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF150">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG150" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH150">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ150" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="32:36" x14ac:dyDescent="0.2">
@@ -5138,27 +5169,27 @@
         <v>19</v>
       </c>
       <c r="AI151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ151" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF152">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG152" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="AH152">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI152">
         <v>2</v>
       </c>
       <c r="AJ152" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="32:36" x14ac:dyDescent="0.2">
@@ -5175,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="AJ153" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="32:36" x14ac:dyDescent="0.2">
@@ -5192,7 +5223,7 @@
         <v>2</v>
       </c>
       <c r="AJ154" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="32:36" x14ac:dyDescent="0.2">
@@ -5209,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="AJ155" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="32:36" x14ac:dyDescent="0.2">
@@ -5226,7 +5257,7 @@
         <v>2</v>
       </c>
       <c r="AJ156" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="157" spans="32:36" x14ac:dyDescent="0.2">
@@ -5243,7 +5274,7 @@
         <v>2</v>
       </c>
       <c r="AJ157" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="32:36" x14ac:dyDescent="0.2">
@@ -5260,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="AJ158" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="32:36" x14ac:dyDescent="0.2">
@@ -5277,7 +5308,7 @@
         <v>2</v>
       </c>
       <c r="AJ159" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="32:36" x14ac:dyDescent="0.2">
@@ -5291,10 +5322,10 @@
         <v>20</v>
       </c>
       <c r="AI160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ160" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="161" spans="32:36" x14ac:dyDescent="0.2">
@@ -5308,10 +5339,10 @@
         <v>20</v>
       </c>
       <c r="AI161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ161" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="32:36" x14ac:dyDescent="0.2">
@@ -5328,7 +5359,7 @@
         <v>2</v>
       </c>
       <c r="AJ162" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="32:36" x14ac:dyDescent="0.2">
@@ -5345,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="AJ163" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="32:36" x14ac:dyDescent="0.2">
@@ -5362,7 +5393,7 @@
         <v>2</v>
       </c>
       <c r="AJ164" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="32:36" x14ac:dyDescent="0.2">
@@ -5379,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="AJ165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="32:36" x14ac:dyDescent="0.2">
@@ -5393,10 +5424,10 @@
         <v>20</v>
       </c>
       <c r="AI166">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ166" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="32:36" x14ac:dyDescent="0.2">
@@ -5410,10 +5441,10 @@
         <v>20</v>
       </c>
       <c r="AI167">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="32:36" x14ac:dyDescent="0.2">
@@ -5427,10 +5458,10 @@
         <v>20</v>
       </c>
       <c r="AI168">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ168" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="32:36" x14ac:dyDescent="0.2">
@@ -5444,10 +5475,10 @@
         <v>20</v>
       </c>
       <c r="AI169">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ169" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="32:36" x14ac:dyDescent="0.2">
@@ -5461,27 +5492,27 @@
         <v>20</v>
       </c>
       <c r="AI170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ170" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF171">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG171" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="AH171">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI171">
         <v>2</v>
       </c>
       <c r="AJ171" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="32:36" x14ac:dyDescent="0.2">
@@ -5495,24 +5526,24 @@
         <v>21</v>
       </c>
       <c r="AI172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ172" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF173">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AH173">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ173" t="s">
         <v>32</v>
@@ -5520,16 +5551,16 @@
     </row>
     <row r="174" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF174">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG174" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AH174">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ174" t="s">
         <v>32</v>
@@ -5537,19 +5568,19 @@
     </row>
     <row r="175" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF175">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG175" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH175">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI175">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ175" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176" spans="32:36" x14ac:dyDescent="0.2">
@@ -5563,27 +5594,27 @@
         <v>24</v>
       </c>
       <c r="AI176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ176" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF177">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH177">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ177" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="32:36" x14ac:dyDescent="0.2">
@@ -5597,27 +5628,27 @@
         <v>25</v>
       </c>
       <c r="AI178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ178" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF179">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG179" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH179">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ179" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180" spans="32:36" x14ac:dyDescent="0.2">
@@ -5631,24 +5662,24 @@
         <v>26</v>
       </c>
       <c r="AI180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ180" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF181">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG181" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH181">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ181" t="s">
         <v>31</v>
@@ -5668,24 +5699,24 @@
         <v>2</v>
       </c>
       <c r="AJ182" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF183">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG183" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH183">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ183" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="32:36" x14ac:dyDescent="0.2">
@@ -5699,41 +5730,41 @@
         <v>28</v>
       </c>
       <c r="AI184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ184" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="185" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF185">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG185" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AH185">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI185">
         <v>2</v>
       </c>
       <c r="AJ185" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="186" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF186">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG186" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH186">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ186" t="s">
         <v>33</v>
@@ -5741,16 +5772,16 @@
     </row>
     <row r="187" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF187">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG187" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH187">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI187">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ187" t="s">
         <v>33</v>
@@ -5758,16 +5789,16 @@
     </row>
     <row r="188" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF188">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH188">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI188">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ188" t="s">
         <v>33</v>
@@ -5775,16 +5806,16 @@
     </row>
     <row r="189" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF189">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH189">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI189">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ189" t="s">
         <v>33</v>
@@ -5792,16 +5823,16 @@
     </row>
     <row r="190" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF190">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AH190">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI190">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ190" t="s">
         <v>33</v>
@@ -5818,41 +5849,41 @@
         <v>34</v>
       </c>
       <c r="AI191">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ191" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="192" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF192">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG192" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH192">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI192">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ192" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF193">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG193" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH193">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI193">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ193" t="s">
         <v>33</v>
@@ -5860,16 +5891,16 @@
     </row>
     <row r="194" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF194">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH194">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AI194">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ194" t="s">
         <v>33</v>
@@ -5877,16 +5908,16 @@
     </row>
     <row r="195" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF195">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG195" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH195">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI195">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ195" t="s">
         <v>33</v>
@@ -5894,19 +5925,19 @@
     </row>
     <row r="196" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF196">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG196" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH196">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI196">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AJ196" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197" spans="32:36" x14ac:dyDescent="0.2">
@@ -5920,27 +5951,27 @@
         <v>39</v>
       </c>
       <c r="AI197">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AJ197" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF198">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH198">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI198">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AJ198" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="199" spans="32:36" x14ac:dyDescent="0.2">
@@ -5954,27 +5985,27 @@
         <v>40</v>
       </c>
       <c r="AI199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ199" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF200">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH200">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI200">
         <v>1</v>
       </c>
       <c r="AJ200" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="201" spans="32:36" x14ac:dyDescent="0.2">
@@ -5988,27 +6019,27 @@
         <v>41</v>
       </c>
       <c r="AI201">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AJ201" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="202" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF202">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH202">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI202">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ202" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="32:36" x14ac:dyDescent="0.2">
@@ -6025,24 +6056,24 @@
         <v>1</v>
       </c>
       <c r="AJ203" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="204" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF204">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH204">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ204" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" spans="32:36" x14ac:dyDescent="0.2">
@@ -6056,27 +6087,27 @@
         <v>43</v>
       </c>
       <c r="AI205">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AJ205" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="206" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF206">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH206">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AI206">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AJ206" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207" spans="32:36" x14ac:dyDescent="0.2">
@@ -6093,24 +6124,24 @@
         <v>1</v>
       </c>
       <c r="AJ207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF208">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH208">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI208">
         <v>1</v>
       </c>
       <c r="AJ208" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" spans="32:36" x14ac:dyDescent="0.2">
@@ -6127,38 +6158,38 @@
         <v>1</v>
       </c>
       <c r="AJ209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="210" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF210">
+        <v>45</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH210">
+        <v>45</v>
+      </c>
+      <c r="AI210">
+        <v>1</v>
+      </c>
+      <c r="AJ210" t="s">
         <v>46</v>
-      </c>
-      <c r="AG210" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH210">
-        <v>46</v>
-      </c>
-      <c r="AI210">
-        <v>1</v>
-      </c>
-      <c r="AJ210" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="211" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF211">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG211" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH211">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ211" t="s">
         <v>48</v>
@@ -6175,10 +6206,10 @@
         <v>47</v>
       </c>
       <c r="AI212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ212" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="213" spans="32:36" x14ac:dyDescent="0.2">
@@ -6195,41 +6226,41 @@
         <v>1</v>
       </c>
       <c r="AJ213" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="214" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF214">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AG214" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH214">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI214">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ214" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="215" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF215">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG215" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH215">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ215" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="32:36" x14ac:dyDescent="0.2">
@@ -6243,10 +6274,10 @@
         <v>49</v>
       </c>
       <c r="AI216">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ216" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="217" spans="32:36" x14ac:dyDescent="0.2">
@@ -6260,41 +6291,41 @@
         <v>49</v>
       </c>
       <c r="AI217">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ217" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="218" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF218">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG218" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH218">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ218" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF219">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG219" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH219">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ219" t="s">
         <v>59</v>
@@ -6302,16 +6333,16 @@
     </row>
     <row r="220" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF220">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG220" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH220">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ220" t="s">
         <v>59</v>
@@ -6319,19 +6350,19 @@
     </row>
     <row r="221" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF221">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG221" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH221">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ221" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="222" spans="32:36" x14ac:dyDescent="0.2">
@@ -6345,24 +6376,24 @@
         <v>53</v>
       </c>
       <c r="AI222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ222" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="223" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF223">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH223">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI223">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ223" t="s">
         <v>59</v>
@@ -6379,10 +6410,10 @@
         <v>54</v>
       </c>
       <c r="AI224">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ224" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="225" spans="32:36" x14ac:dyDescent="0.2">
@@ -6396,27 +6427,27 @@
         <v>54</v>
       </c>
       <c r="AI225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ225" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="226" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF226">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH226">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI226">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ226" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="227" spans="32:36" x14ac:dyDescent="0.2">
@@ -6430,41 +6461,41 @@
         <v>55</v>
       </c>
       <c r="AI227">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ227" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="228" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF228">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG228" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH228">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI228">
         <v>1</v>
       </c>
       <c r="AJ228" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF229">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG229" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH229">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ229" t="s">
         <v>62</v>
@@ -6481,10 +6512,10 @@
         <v>57</v>
       </c>
       <c r="AI230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ230" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="231" spans="32:36" x14ac:dyDescent="0.2">
@@ -6501,41 +6532,41 @@
         <v>1</v>
       </c>
       <c r="AJ231" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="232" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF232">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG232" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH232">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ232" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="233" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF233">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG233" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH233">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI233">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ233" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="234" spans="32:36" x14ac:dyDescent="0.2">
@@ -6549,10 +6580,10 @@
         <v>59</v>
       </c>
       <c r="AI234">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ234" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="235" spans="32:36" x14ac:dyDescent="0.2">
@@ -6566,41 +6597,41 @@
         <v>59</v>
       </c>
       <c r="AI235">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ235" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="236" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF236">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG236" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH236">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ236" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="237" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF237">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG237" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH237">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ237" t="s">
         <v>67</v>
@@ -6608,16 +6639,16 @@
     </row>
     <row r="238" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF238">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG238" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH238">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ238" t="s">
         <v>67</v>
@@ -6625,19 +6656,19 @@
     </row>
     <row r="239" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF239">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG239" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH239">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ239" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="240" spans="32:36" x14ac:dyDescent="0.2">
@@ -6651,24 +6682,24 @@
         <v>63</v>
       </c>
       <c r="AI240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ240" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF241">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AH241">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI241">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ241" t="s">
         <v>67</v>
@@ -6685,10 +6716,10 @@
         <v>64</v>
       </c>
       <c r="AI242">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ242" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="243" spans="32:36" x14ac:dyDescent="0.2">
@@ -6702,27 +6733,27 @@
         <v>64</v>
       </c>
       <c r="AI243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ243" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="244" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF244">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG244" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH244">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ244" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="245" spans="32:36" x14ac:dyDescent="0.2">
@@ -6736,27 +6767,27 @@
         <v>65</v>
       </c>
       <c r="AI245">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ245" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF246">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG246" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AH246">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI246">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ246" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="247" spans="32:36" x14ac:dyDescent="0.2">
@@ -6773,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="AJ247" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248" spans="32:36" x14ac:dyDescent="0.2">
@@ -6787,10 +6818,10 @@
         <v>66</v>
       </c>
       <c r="AI248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ248" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="249" spans="32:36" x14ac:dyDescent="0.2">
@@ -6804,27 +6835,27 @@
         <v>66</v>
       </c>
       <c r="AI249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ249" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF250">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG250" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH250">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI250">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AJ250" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="32:36" x14ac:dyDescent="0.2">
@@ -6841,7 +6872,7 @@
         <v>14</v>
       </c>
       <c r="AJ251" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="32:36" x14ac:dyDescent="0.2">
@@ -6855,10 +6886,10 @@
         <v>67</v>
       </c>
       <c r="AI252">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ252" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="253" spans="32:36" x14ac:dyDescent="0.2">
@@ -6872,10 +6903,10 @@
         <v>67</v>
       </c>
       <c r="AI253">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ253" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="254" spans="32:36" x14ac:dyDescent="0.2">
@@ -6892,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="AJ254" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="255" spans="32:36" x14ac:dyDescent="0.2">
@@ -6909,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="AJ255" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="256" spans="32:36" x14ac:dyDescent="0.2">
@@ -6926,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="AJ256" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="257" spans="32:36" x14ac:dyDescent="0.2">
@@ -6940,10 +6971,10 @@
         <v>67</v>
       </c>
       <c r="AI257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ257" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="258" spans="32:36" x14ac:dyDescent="0.2">
@@ -6960,7 +6991,7 @@
         <v>2</v>
       </c>
       <c r="AJ258" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="259" spans="32:36" x14ac:dyDescent="0.2">
@@ -6974,10 +7005,10 @@
         <v>67</v>
       </c>
       <c r="AI259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ259" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="32:36" x14ac:dyDescent="0.2">
@@ -6991,10 +7022,10 @@
         <v>67</v>
       </c>
       <c r="AI260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ260" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="261" spans="32:36" x14ac:dyDescent="0.2">
@@ -7008,10 +7039,10 @@
         <v>67</v>
       </c>
       <c r="AI261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ261" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" spans="32:36" x14ac:dyDescent="0.2">
@@ -7028,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="AJ262" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="263" spans="32:36" x14ac:dyDescent="0.2">
@@ -7045,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="AJ263" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" spans="32:36" x14ac:dyDescent="0.2">
@@ -7059,10 +7090,10 @@
         <v>67</v>
       </c>
       <c r="AI264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ264" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" spans="32:36" x14ac:dyDescent="0.2">
@@ -7076,10 +7107,10 @@
         <v>67</v>
       </c>
       <c r="AI265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ265" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="266" spans="32:36" x14ac:dyDescent="0.2">
@@ -7096,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="AJ266" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="32:36" x14ac:dyDescent="0.2">
@@ -7110,10 +7141,10 @@
         <v>67</v>
       </c>
       <c r="AI267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ267" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268" spans="32:36" x14ac:dyDescent="0.2">
@@ -7127,10 +7158,10 @@
         <v>67</v>
       </c>
       <c r="AI268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ268" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="269" spans="32:36" x14ac:dyDescent="0.2">
@@ -7147,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="AJ269" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="270" spans="32:36" x14ac:dyDescent="0.2">
@@ -7161,27 +7192,27 @@
         <v>67</v>
       </c>
       <c r="AI270">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ270" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF271">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG271" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH271">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI271">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ271" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="272" spans="32:36" x14ac:dyDescent="0.2">
@@ -7195,26 +7226,45 @@
         <v>68</v>
       </c>
       <c r="AI272">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ272" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="273" spans="32:36" x14ac:dyDescent="0.2">
+      <c r="AF273">
+        <v>68</v>
+      </c>
+      <c r="AG273" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH273">
+        <v>68</v>
+      </c>
+      <c r="AI273">
+        <v>1</v>
+      </c>
+      <c r="AJ273" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT292">
-    <sortCondition ref="A1:A292"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AT293">
+    <sortCondition ref="A1:A293"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="65" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MidiMerge2in5out/midimerge2in5out_bom.xlsx
+++ b/MidiMerge2in5out/midimerge2in5out_bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiMerge2in5out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEB06DA-EF92-A848-A294-F13EAD421CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01697924-5171-2241-A439-981FA91C6C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
   </bookViews>
@@ -875,10 +875,10 @@
     <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
   <si>
-    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5.</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
+  </si>
+  <si>
+    <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1094,7 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1106,6 +1105,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1118,18 +1123,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1512,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:C48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,13 +1581,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -2830,7 +2831,7 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="19" t="s">
         <v>266</v>
       </c>
       <c r="B42" s="5"/>
@@ -2863,20 +2864,20 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:29" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="24"/>
+      <c r="A44" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="17"/>
       <c r="R44" t="s">
         <v>8</v>
       </c>
@@ -2900,13 +2901,13 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="25"/>
       <c r="R45" t="s">
         <v>8</v>
       </c>
@@ -2930,13 +2931,13 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="10"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="9"/>
       <c r="R46" t="s">
         <v>8</v>
       </c>
@@ -2963,13 +2964,13 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="25"/>
       <c r="R47" t="s">
         <v>8</v>
       </c>
@@ -2996,21 +2997,21 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="E49" s="8"/>
+      <c r="A49" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="E49" s="7"/>
       <c r="R49" t="s">
         <v>8</v>
       </c>
@@ -3037,8 +3038,10 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="E50" s="8"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="E50" s="7"/>
       <c r="R50" t="s">
         <v>8</v>
       </c>
@@ -3062,8 +3065,8 @@
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="10"/>
+      <c r="E51" s="7"/>
       <c r="R51" t="s">
         <v>8</v>
       </c>
@@ -3087,11 +3090,11 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
       <c r="R52" t="s">
         <v>8</v>
       </c>
@@ -7254,13 +7257,13 @@
     <sortCondition ref="A1:A293"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A49:C50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiMerge2in5out/midimerge2in5out_bom.xlsx
+++ b/MidiMerge2in5out/midimerge2in5out_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiMerge2in5out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01697924-5171-2241-A439-981FA91C6C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5094481C-62EB-054B-8C0B-6B5C37A069E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
   </bookViews>
   <sheets>
     <sheet name="midimerge2in5out" sheetId="1" r:id="rId1"/>
@@ -872,13 +872,13 @@
     <t>Sockets, switches, housing:</t>
   </si>
   <si>
-    <t xml:space="preserve">* If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
-  </si>
-  <si>
     <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
   </si>
   <si>
     <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* * For 2019 boards ONLY: If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
   </si>
 </sst>
 </file>
@@ -1111,15 +1111,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1581,13 +1581,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="44" spans="1:29" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -2901,12 +2901,12 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="25"/>
       <c r="R45" t="s">
         <v>8</v>
@@ -2931,12 +2931,12 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="9"/>
       <c r="R46" t="s">
         <v>8</v>
@@ -2964,12 +2964,12 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="25"/>
       <c r="R47" t="s">
         <v>8</v>
@@ -2997,20 +2997,20 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
       <c r="E49" s="7"/>
       <c r="R49" t="s">
         <v>8</v>
@@ -7257,13 +7257,13 @@
     <sortCondition ref="A1:A293"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="A49:C50"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A49:C50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MidiMerge2in5out/midimerge2in5out_bom.xlsx
+++ b/MidiMerge2in5out/midimerge2in5out_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MidiMerge2in5out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5094481C-62EB-054B-8C0B-6B5C37A069E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91342663-6378-6442-95C5-9C01E25C1372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
+    <workbookView xWindow="-43360" yWindow="-1160" windowWidth="28800" windowHeight="16040" xr2:uid="{7EC39B72-B330-5B41-BDB9-CD5782842481}"/>
   </bookViews>
   <sheets>
     <sheet name="midimerge2in5out" sheetId="1" r:id="rId1"/>
@@ -878,7 +878,7 @@
     <t>* Connect a power source (center=positive) and meassure +5V rail such as on IC socket for 6N138 between Pin8 and Pin5. Power on board without ICs first to avoid the damage due soldering mistakes.</t>
   </si>
   <si>
-    <t xml:space="preserve">* * For 2019 boards ONLY: If you choose USB power option, then put a jumper between pin 1 and 3 on U4, those are outer pins. Leave center pin unconnected. Don't short it, etc...  </t>
+    <t>* If you power from USB source or straight +5V power supply, then you need to set the jumper JP1 onto 2-3 position. If any other PSU &gt; 5V, then set it to 1-2. Please, note Pin1 has the angle marking.</t>
   </si>
 </sst>
 </file>
@@ -1111,15 +1111,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1129,8 +1131,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,15 +1153,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>977899</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>32239</xdr:rowOff>
+      <xdr:colOff>939799</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>70339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>330199</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>314222</xdr:rowOff>
+      <xdr:colOff>16420</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1177,7 +1177,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1191,8 +1191,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7556499" y="8388839"/>
-          <a:ext cx="1104900" cy="1513883"/>
+          <a:off x="7518399" y="8833339"/>
+          <a:ext cx="829221" cy="1136161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1207,6 +1207,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>769930</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>167055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6BE93A-F295-1546-8A9A-71BA5EAA8B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896099" y="10014439"/>
+          <a:ext cx="2205031" cy="1392116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1514,7 +1558,7 @@
   <dimension ref="A1:AJ273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1581,13 +1625,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="R2" t="s">
         <v>3</v>
       </c>
@@ -2871,11 +2915,11 @@
       <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:29" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="18"/>
       <c r="E44" s="17"/>
       <c r="R44" t="s">
@@ -2901,13 +2945,13 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="27"/>
       <c r="R45" t="s">
         <v>8</v>
       </c>
@@ -2931,12 +2975,12 @@
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="9"/>
       <c r="R46" t="s">
         <v>8</v>
@@ -2964,13 +3008,13 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="27"/>
       <c r="R47" t="s">
         <v>8</v>
       </c>
@@ -2997,20 +3041,20 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
       <c r="E49" s="7"/>
       <c r="R49" t="s">
         <v>8</v>
@@ -3038,9 +3082,9 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
       <c r="E50" s="7"/>
       <c r="R50" t="s">
         <v>8</v>
